--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlindo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlindo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA520E-637A-46C8-B140-A7F85B0BA751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1FF8FF-DD8D-45F8-9848-D7F278BF6597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="2" xr2:uid="{B3405978-5589-47AE-9A26-B7A7CF71C01C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4880" activeTab="2" xr2:uid="{B3405978-5589-47AE-9A26-B7A7CF71C01C}"/>
   </bookViews>
   <sheets>
     <sheet name="coordenadas" sheetId="1" r:id="rId1"/>
     <sheet name="informacion" sheetId="3" r:id="rId2"/>
     <sheet name="productos" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">productos!$A$1:$E$170</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="188">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -65,12 +68,6 @@
     <t>-8.1155796939823,-79.0443514900207</t>
   </si>
   <si>
-    <t>Aladino SRL</t>
-  </si>
-  <si>
-    <t>-8.08799236022694,-79.1020104289054</t>
-  </si>
-  <si>
     <t>Centro Ferretero y Servicios Generales Divino Niño Jesús E.I.R.L</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
     <t>Tubo 3/4 c/r</t>
   </si>
   <si>
+    <t xml:space="preserve">Electrico </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tubo 3/4 Sell </t>
   </si>
   <si>
@@ -224,6 +224,9 @@
     <t>Sider</t>
   </si>
   <si>
+    <t xml:space="preserve">fierro </t>
+  </si>
+  <si>
     <t>fierro 1/4</t>
   </si>
   <si>
@@ -272,18 +275,27 @@
     <t>CALL</t>
   </si>
   <si>
+    <t>CALAMINON  30</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALAMINON </t>
   </si>
   <si>
     <t xml:space="preserve">SUPERTECHO </t>
   </si>
   <si>
+    <t>CALAMINON  28</t>
+  </si>
+  <si>
     <t xml:space="preserve">calaminon </t>
   </si>
   <si>
     <t>mi techo</t>
   </si>
   <si>
+    <t xml:space="preserve">calamina </t>
+  </si>
+  <si>
     <t>calamina 14</t>
   </si>
   <si>
@@ -338,12 +350,18 @@
     <t>fierro 12 mm</t>
   </si>
   <si>
+    <t>tanque  eterni</t>
+  </si>
+  <si>
     <t>eternit  1100 ltros</t>
   </si>
   <si>
     <t>eternit</t>
   </si>
   <si>
+    <t xml:space="preserve">tanque rotoplas </t>
+  </si>
+  <si>
     <t xml:space="preserve">rotoplas </t>
   </si>
   <si>
@@ -506,18 +524,6 @@
     <t xml:space="preserve"> GRIS</t>
   </si>
   <si>
-    <t>Fierro Aceros Arequipa barra 5/8</t>
-  </si>
-  <si>
-    <t>Tuboplast</t>
-  </si>
-  <si>
-    <t>Alambre N°16 y 8</t>
-  </si>
-  <si>
-    <t>Clavos 2", 2 1/2", 3", 4" y 5"</t>
-  </si>
-  <si>
     <t>Nombre del Asociado:</t>
   </si>
   <si>
@@ -587,31 +593,7 @@
     <t>Modesta Caldeón</t>
   </si>
   <si>
-    <t>CTA CTE BCP ALADINO SRL 5701616540061</t>
-  </si>
-  <si>
     <t>Cuenta BCP Soles es 47591685272042.  |  Cuenta interbancaria es 00247519168527204220</t>
-  </si>
-  <si>
-    <t>Electrico</t>
-  </si>
-  <si>
-    <t>CALAMINON 30</t>
-  </si>
-  <si>
-    <t>CALAMINON 28</t>
-  </si>
-  <si>
-    <t>calamina</t>
-  </si>
-  <si>
-    <t>tanque eterni</t>
-  </si>
-  <si>
-    <t>tanque rotoplas</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1152,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049BACEB-E477-44F4-A70D-6E0F001A1E7D}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,7 +1203,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1229,7 +1211,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1237,7 +1219,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1246,34 +1228,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA155C-EBDF-458D-8B77-6B868F2267BF}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1301,36 +1275,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" s="10">
         <v>961957234</v>
@@ -1341,10 +1315,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1355,14 +1329,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E4" s="20">
         <v>94061623</v>
@@ -1371,19 +1345,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D5" s="10">
         <v>982687414</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -1392,13 +1366,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" s="37">
         <v>981257242</v>
@@ -1412,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E7" s="37">
         <v>978001402</v>
@@ -1432,13 +1406,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" s="37">
         <v>994670510</v>
@@ -1456,18 +1430,6 @@
       <c r="D9" s="34"/>
       <c r="E9" s="38"/>
       <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,43 +1438,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D20A238-2D73-4F5A-80FD-D26FC51D44DB}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="12">
         <v>34.200000000000003</v>
@@ -1520,16 +1482,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="12">
         <v>36</v>
@@ -1537,16 +1499,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="12">
         <v>35.4</v>
@@ -1554,16 +1516,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="12">
         <v>33</v>
@@ -1571,16 +1533,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="12">
         <v>57.8</v>
@@ -1588,16 +1550,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="12">
         <v>37.200000000000003</v>
@@ -1605,16 +1567,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="12">
         <v>22.2</v>
@@ -1622,16 +1584,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="12">
         <v>15.7</v>
@@ -1639,16 +1601,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="12">
         <v>8.8000000000000007</v>
@@ -1656,16 +1618,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="12">
         <v>17.5</v>
@@ -1673,16 +1635,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="12">
         <v>15.8</v>
@@ -1690,16 +1652,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="12">
         <v>32.799999999999997</v>
@@ -1707,16 +1669,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="12">
         <v>20.5</v>
@@ -1724,16 +1686,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="12">
         <v>26.5</v>
@@ -1741,16 +1703,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E16" s="12">
         <v>3.2</v>
@@ -1758,16 +1720,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="12">
         <v>2.4</v>
@@ -1775,16 +1737,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="12">
         <v>2.6</v>
@@ -1792,13 +1754,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12">
@@ -1807,13 +1769,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12">
@@ -1822,13 +1784,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12">
@@ -1837,13 +1799,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="12">
@@ -1852,13 +1814,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12">
@@ -1867,13 +1829,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12">
@@ -1882,16 +1844,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="E25" s="15">
         <v>33.200000000000003</v>
@@ -1899,16 +1861,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="E26" s="15">
         <v>35.700000000000003</v>
@@ -1916,16 +1878,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="15">
         <v>35.200000000000003</v>
@@ -1933,31 +1895,31 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="15">
         <v>56.86</v>
@@ -1965,10 +1927,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>65</v>
@@ -1982,10 +1944,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>67</v>
@@ -1999,10 +1961,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>69</v>
@@ -2016,7 +1978,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>70</v>
@@ -2033,10 +1995,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>72</v>
@@ -2050,10 +2012,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>73</v>
@@ -2067,13 +2029,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>74</v>
@@ -2084,13 +2046,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>75</v>
@@ -2101,7 +2063,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>76</v>
@@ -2116,7 +2078,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>78</v>
@@ -2131,7 +2093,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>79</v>
@@ -2146,7 +2108,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>80</v>
@@ -2161,16 +2123,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42" s="15">
         <v>83</v>
@@ -2178,16 +2140,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="15">
         <v>65</v>
@@ -2195,16 +2157,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E44" s="15">
         <v>14</v>
@@ -2212,16 +2174,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E45" s="15">
         <v>19.5</v>
@@ -2229,16 +2191,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E46" s="15">
         <v>22</v>
@@ -2246,16 +2208,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E47" s="15">
         <v>27</v>
@@ -2263,16 +2225,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E48" s="15">
         <v>8.3000000000000007</v>
@@ -2280,16 +2242,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E49" s="15">
         <v>20.079999999999998</v>
@@ -2297,16 +2259,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E50" s="15">
         <v>36</v>
@@ -2314,16 +2276,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E51" s="15">
         <v>55.68</v>
@@ -2331,7 +2293,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>70</v>
@@ -2340,7 +2302,7 @@
         <v>72</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E52" s="15">
         <v>81.88</v>
@@ -2348,16 +2310,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" s="15">
         <v>14.4</v>
@@ -2365,16 +2327,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E54" s="15">
         <v>32.119999999999997</v>
@@ -2382,16 +2344,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E55" s="15">
         <v>18</v>
@@ -2399,16 +2361,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E56" s="15">
         <v>21</v>
@@ -2416,16 +2378,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E57" s="15">
         <v>8</v>
@@ -2433,7 +2395,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>70</v>
@@ -2442,7 +2404,7 @@
         <v>67</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E58" s="17">
         <v>18.559999999999999</v>
@@ -2450,16 +2412,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E59" s="18">
         <v>33.270000000000003</v>
@@ -2467,16 +2429,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E60" s="18">
         <v>51.46</v>
@@ -2484,7 +2446,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>70</v>
@@ -2493,7 +2455,7 @@
         <v>72</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E61" s="18">
         <v>75.680000000000007</v>
@@ -2501,16 +2463,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E62" s="18">
         <v>13.31</v>
@@ -2518,16 +2480,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E63" s="18">
         <v>29.69</v>
@@ -2535,16 +2497,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E64" s="18">
         <v>480</v>
@@ -2552,16 +2514,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E65" s="18">
         <v>580</v>
@@ -2569,16 +2531,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E66" s="21">
         <v>35.9</v>
@@ -2586,16 +2548,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E67" s="21">
         <v>33.299999999999997</v>
@@ -2603,16 +2565,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E68" s="21">
         <v>35.4</v>
@@ -2620,16 +2582,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E69" s="21">
         <v>33.299999999999997</v>
@@ -2637,16 +2599,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E70" s="21">
         <v>57.01</v>
@@ -2654,16 +2616,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E71" s="21">
         <v>20.56</v>
@@ -2671,16 +2633,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E72" s="21">
         <v>36.86</v>
@@ -2688,16 +2650,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E73" s="21">
         <v>8.2899999999999991</v>
@@ -2705,16 +2667,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E74" s="21">
         <v>14.85</v>
@@ -2722,16 +2684,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E75" s="21">
         <v>32.89</v>
@@ -2739,16 +2701,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E76" s="21">
         <v>147.44999999999999</v>
@@ -2756,16 +2718,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E77" s="21">
         <v>56.58</v>
@@ -2773,16 +2735,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E78" s="21">
         <v>20.399999999999999</v>
@@ -2790,16 +2752,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B79" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E79" s="21">
         <v>36.58</v>
@@ -2807,16 +2769,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B80" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E80" s="21">
         <v>8.2200000000000006</v>
@@ -2824,16 +2786,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B81" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E81" s="21">
         <v>14.63</v>
@@ -2841,16 +2803,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E82" s="21">
         <v>32.64</v>
@@ -2858,16 +2820,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B83" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E83" s="21">
         <v>14.63</v>
@@ -2875,16 +2837,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E84" s="21">
         <v>53.58</v>
@@ -2892,16 +2854,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E85" s="21">
         <v>19.32</v>
@@ -2909,16 +2871,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E86" s="21">
         <v>34.64</v>
@@ -2926,16 +2888,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E87" s="21">
         <v>7.79</v>
@@ -2943,16 +2905,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E88" s="21">
         <v>13.86</v>
@@ -2960,16 +2922,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E89" s="21">
         <v>30.91</v>
@@ -2977,16 +2939,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E90" s="21">
         <v>138.56</v>
@@ -2994,16 +2956,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E91" s="21">
         <v>13.24</v>
@@ -3011,16 +2973,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B92" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E92" s="21">
         <v>13.24</v>
@@ -3028,16 +2990,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E93" s="21">
         <v>18.059999999999999</v>
@@ -3045,16 +3007,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E94" s="21">
         <v>18.940000000000001</v>
@@ -3062,16 +3024,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E95" s="21">
         <v>23.19</v>
@@ -3079,16 +3041,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E96" s="21">
         <v>23.23</v>
@@ -3096,16 +3058,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E97" s="21">
         <v>3.81</v>
@@ -3113,16 +3075,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E98" s="21">
         <v>3.81</v>
@@ -3130,16 +3092,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E99" s="21">
         <v>3.89</v>
@@ -3147,16 +3109,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E100" s="21">
         <v>3.89</v>
@@ -3164,16 +3126,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E101" s="21">
         <v>3.89</v>
@@ -3181,16 +3143,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C102" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="E102" s="21">
         <v>3.89</v>
@@ -3198,16 +3160,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E103" s="21">
         <v>3.89</v>
@@ -3215,16 +3177,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E104" s="21">
         <v>5.63</v>
@@ -3232,16 +3194,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E105" s="21">
         <v>5.48</v>
@@ -3249,16 +3211,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E106" s="21">
         <v>5.09</v>
@@ -3266,16 +3228,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E107" s="21">
         <v>6.1</v>
@@ -3283,16 +3245,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E108" s="21">
         <v>6.1</v>
@@ -3300,16 +3262,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E109" s="21">
         <v>5.83</v>
@@ -3317,16 +3279,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E110" s="21">
         <v>33.200000000000003</v>
@@ -3334,16 +3296,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E111" s="21">
         <v>35.6</v>
@@ -3351,16 +3313,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E112" s="21">
         <v>58</v>
@@ -3368,16 +3330,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E113" s="21">
         <v>21</v>
@@ -3385,16 +3347,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E114" s="21">
         <v>38</v>
@@ -3402,16 +3364,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115" s="21">
         <v>9</v>
@@ -3419,16 +3381,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E116" s="21">
         <v>17</v>
@@ -3436,16 +3398,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E117" s="21">
         <v>13</v>
@@ -3453,16 +3415,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E118" s="21">
         <v>18</v>
@@ -3470,16 +3432,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B119" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E119" s="21">
         <v>23</v>
@@ -3487,16 +3449,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E120" s="24">
         <v>660</v>
@@ -3507,13 +3469,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E121" s="27">
         <v>30.5</v>
@@ -3524,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E122" s="27">
         <v>33.5</v>
@@ -3541,13 +3503,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E123" s="27">
         <v>32.5</v>
@@ -3558,13 +3520,13 @@
         <v>2</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E124" s="27">
         <v>29</v>
@@ -3575,13 +3537,13 @@
         <v>2</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E125" s="28">
         <v>58</v>
@@ -3592,13 +3554,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E126" s="28">
         <v>37.5</v>
@@ -3609,13 +3571,13 @@
         <v>2</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E127" s="28">
         <v>33.5</v>
@@ -3626,13 +3588,13 @@
         <v>2</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E128" s="27">
         <v>10</v>
@@ -3643,13 +3605,13 @@
         <v>2</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E129" s="27">
         <v>2.8</v>
@@ -3660,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E130" s="27">
         <v>1.05</v>
@@ -3677,13 +3639,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E131" s="27">
         <v>2.9</v>
@@ -3694,13 +3656,13 @@
         <v>2</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E132" s="27">
         <v>2.5</v>
@@ -3711,13 +3673,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E133" s="27">
         <v>30</v>
@@ -3728,13 +3690,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E134" s="27">
         <v>33</v>
@@ -3745,13 +3707,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E135" s="27">
         <v>32</v>
@@ -3762,13 +3724,13 @@
         <v>4</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E136" s="27">
         <v>28.5</v>
@@ -3779,13 +3741,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E137" s="28">
         <v>57.5</v>
@@ -3796,13 +3758,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E138" s="28">
         <v>37.200000000000003</v>
@@ -3813,13 +3775,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E139" s="28">
         <v>8.5</v>
@@ -3829,14 +3791,12 @@
       <c r="A140" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="26" t="s">
-        <v>194</v>
-      </c>
+      <c r="B140" s="26"/>
       <c r="C140" s="26" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E140" s="28">
         <v>33.299999999999997</v>
@@ -3847,13 +3807,13 @@
         <v>4</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E141" s="27">
         <v>10</v>
@@ -3864,13 +3824,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E142" s="27">
         <v>2.5</v>
@@ -3881,13 +3841,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E143" s="27">
         <v>1.02</v>
@@ -3898,13 +3858,13 @@
         <v>4</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E144" s="27">
         <v>2.9</v>
@@ -3915,13 +3875,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E145" s="27">
         <v>2.7</v>
@@ -3932,13 +3892,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E146" s="27">
         <v>2.5</v>
@@ -3949,13 +3909,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E147" s="27">
         <v>29.9</v>
@@ -3966,13 +3926,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E148" s="27">
         <v>33.5</v>
@@ -3983,13 +3943,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E149" s="27">
         <v>32.5</v>
@@ -4000,13 +3960,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E150" s="27">
         <v>28.4</v>
@@ -4017,13 +3977,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E151" s="28">
         <v>56.5</v>
@@ -4034,13 +3994,13 @@
         <v>6</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E152" s="28">
         <v>36.6</v>
@@ -4051,13 +4011,13 @@
         <v>6</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E153" s="28">
         <v>8.3000000000000007</v>
@@ -4068,13 +4028,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E154" s="27">
         <v>8</v>
@@ -4085,13 +4045,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E155" s="27">
         <v>6.5</v>
@@ -4102,13 +4062,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E156" s="27">
         <v>16.5</v>
@@ -4119,13 +4079,13 @@
         <v>6</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E157" s="27">
         <v>2.5</v>
@@ -4136,13 +4096,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E158" s="27">
         <v>1.05</v>
@@ -4153,13 +4113,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E159" s="27">
         <v>2.85</v>
@@ -4170,13 +4130,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E160" s="27">
         <v>2.5499999999999998</v>
@@ -4187,13 +4147,13 @@
         <v>6</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E161" s="30">
         <v>0.75</v>
@@ -4204,13 +4164,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="C162" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D162" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="E162" s="32">
         <v>30.5</v>
@@ -4221,13 +4181,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="C163" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D163" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="E163" s="32">
         <v>33.700000000000003</v>
@@ -4238,13 +4198,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E164" s="32">
         <v>32.700000000000003</v>
@@ -4255,13 +4215,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E165" s="32">
         <v>29</v>
@@ -4272,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E166" s="32">
         <v>57.3</v>
@@ -4289,13 +4249,13 @@
         <v>8</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E167" s="32">
         <v>13.5</v>
@@ -4306,13 +4266,13 @@
         <v>8</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E168" s="32">
         <v>2.9</v>
@@ -4323,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E169" s="32">
         <v>28</v>
@@ -4340,169 +4300,16 @@
         <v>8</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E170" s="32">
         <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E171" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E172" s="22">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E173" s="22">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E174" s="22">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E175" s="22">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E177" s="22">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" s="22">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" s="22">
-        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -687,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -720,6 +720,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3351,8 +3354,8 @@
       <c r="D6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="13">
-        <v>57.8</v>
+      <c r="E6" s="14">
+        <v>57.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -3362,7 +3365,7 @@
       <c r="B7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3379,7 +3382,7 @@
       <c r="B8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -3396,7 +3399,7 @@
       <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -3413,7 +3416,7 @@
       <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -3653,13 +3656,13 @@
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="13">
@@ -3670,13 +3673,13 @@
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="13">
@@ -3687,13 +3690,13 @@
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="13">
@@ -3704,13 +3707,13 @@
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="13"/>
@@ -3719,13 +3722,13 @@
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="13">
@@ -3736,13 +3739,13 @@
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="13">
@@ -3753,13 +3756,13 @@
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="13">
@@ -3770,13 +3773,13 @@
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E32" s="13">
@@ -3787,13 +3790,13 @@
       <c r="A33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="13">
@@ -3804,13 +3807,13 @@
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="13">
@@ -3821,13 +3824,13 @@
       <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="13">
@@ -3838,13 +3841,13 @@
       <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="16" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="13">
@@ -3855,13 +3858,13 @@
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>99</v>
       </c>
       <c r="E37" s="13">
@@ -3872,13 +3875,13 @@
       <c r="A38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="13">
         <v>4.5</v>
       </c>
@@ -3887,13 +3890,13 @@
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="13">
         <v>9.0</v>
       </c>
@@ -3902,13 +3905,13 @@
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="13">
         <v>12.0</v>
       </c>
@@ -3917,13 +3920,13 @@
       <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="13">
         <v>25.0</v>
       </c>
@@ -3932,13 +3935,13 @@
       <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="16" t="s">
         <v>107</v>
       </c>
       <c r="E42" s="13">
@@ -3949,13 +3952,13 @@
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="13">
@@ -3966,13 +3969,13 @@
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="13">
@@ -3983,13 +3986,13 @@
       <c r="A45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E45" s="13">
@@ -4000,13 +4003,13 @@
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E46" s="13">
@@ -4017,13 +4020,13 @@
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="16" t="s">
         <v>117</v>
       </c>
       <c r="E47" s="13">
@@ -4034,13 +4037,13 @@
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E48" s="13">
@@ -4051,13 +4054,13 @@
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E49" s="13">
@@ -4068,13 +4071,13 @@
       <c r="A50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E50" s="13">
@@ -4085,13 +4088,13 @@
       <c r="A51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E51" s="13">
@@ -4102,13 +4105,13 @@
       <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E52" s="13">
@@ -4119,13 +4122,13 @@
       <c r="A53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E53" s="13">
@@ -4136,13 +4139,13 @@
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E54" s="13">
@@ -4153,13 +4156,13 @@
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E55" s="13">
@@ -4170,13 +4173,13 @@
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="16" t="s">
         <v>125</v>
       </c>
       <c r="E56" s="13">
@@ -4187,13 +4190,13 @@
       <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E57" s="13">
@@ -4204,13 +4207,13 @@
       <c r="A58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E58" s="13">
@@ -4221,13 +4224,13 @@
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E59" s="13">
@@ -4238,13 +4241,13 @@
       <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E60" s="13">
@@ -4255,13 +4258,13 @@
       <c r="A61" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E61" s="13">
@@ -4272,13 +4275,13 @@
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E62" s="13">
@@ -4289,13 +4292,13 @@
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="16" t="s">
         <v>127</v>
       </c>
       <c r="E63" s="13">
@@ -4306,13 +4309,13 @@
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="16" t="s">
         <v>132</v>
       </c>
       <c r="E64" s="13">
@@ -4323,13 +4326,13 @@
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E65" s="13">
@@ -5275,13 +5278,13 @@
       <c r="A121" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E121" s="13">
@@ -5292,13 +5295,13 @@
       <c r="A122" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="13">
@@ -5309,13 +5312,13 @@
       <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E123" s="13">
@@ -5326,13 +5329,13 @@
       <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E124" s="13">
@@ -5343,13 +5346,13 @@
       <c r="A125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E125" s="13">
@@ -5360,13 +5363,13 @@
       <c r="A126" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E126" s="13">
@@ -5377,13 +5380,13 @@
       <c r="A127" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E127" s="13">
@@ -5394,13 +5397,13 @@
       <c r="A128" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E128" s="13">
@@ -5411,13 +5414,13 @@
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D129" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E129" s="13">
@@ -5428,13 +5431,13 @@
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D130" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E130" s="13">
@@ -5445,13 +5448,13 @@
       <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D131" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E131" s="13">
@@ -5462,13 +5465,13 @@
       <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E132" s="13">
@@ -5479,13 +5482,13 @@
       <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D133" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E133" s="13">
@@ -5496,13 +5499,13 @@
       <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="D134" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E134" s="13">
@@ -5513,13 +5516,13 @@
       <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E135" s="13">
@@ -5530,13 +5533,13 @@
       <c r="A136" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E136" s="13">
@@ -5547,13 +5550,13 @@
       <c r="A137" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E137" s="13">
@@ -5564,13 +5567,13 @@
       <c r="A138" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="D138" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E138" s="13">
@@ -5581,13 +5584,13 @@
       <c r="A139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E139" s="13">
@@ -5598,13 +5601,13 @@
       <c r="A140" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D140" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E140" s="13">
@@ -5615,13 +5618,13 @@
       <c r="A141" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E141" s="13">
@@ -5632,13 +5635,13 @@
       <c r="A142" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E142" s="13">
@@ -5649,13 +5652,13 @@
       <c r="A143" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D143" s="16" t="s">
+      <c r="D143" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E143" s="13">
@@ -5666,13 +5669,13 @@
       <c r="A144" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="C144" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="D144" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E144" s="13">
@@ -5683,13 +5686,13 @@
       <c r="A145" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C145" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D145" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E145" s="13">
@@ -5700,13 +5703,13 @@
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C146" s="16" t="s">
+      <c r="C146" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D146" s="16" t="s">
+      <c r="D146" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E146" s="13">
@@ -5717,13 +5720,13 @@
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="D147" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E147" s="13">
@@ -5734,13 +5737,13 @@
       <c r="A148" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C148" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D148" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E148" s="13">
@@ -5751,13 +5754,13 @@
       <c r="A149" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C149" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D149" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E149" s="13">
@@ -5768,13 +5771,13 @@
       <c r="A150" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C150" s="16" t="s">
+      <c r="C150" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D150" s="16" t="s">
+      <c r="D150" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E150" s="13">
@@ -5785,13 +5788,13 @@
       <c r="A151" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="C151" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E151" s="13">
@@ -5802,13 +5805,13 @@
       <c r="A152" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C152" s="16" t="s">
+      <c r="C152" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="D152" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E152" s="13">
@@ -5819,13 +5822,13 @@
       <c r="A153" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C153" s="16" t="s">
+      <c r="C153" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="D153" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E153" s="13">
@@ -5836,13 +5839,13 @@
       <c r="A154" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="C154" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D154" s="16" t="s">
+      <c r="D154" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E154" s="13">
@@ -5853,13 +5856,13 @@
       <c r="A155" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C155" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D155" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E155" s="13">
@@ -5870,13 +5873,13 @@
       <c r="A156" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C156" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="D156" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E156" s="13">
@@ -5887,13 +5890,13 @@
       <c r="A157" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E157" s="13">
@@ -5904,13 +5907,13 @@
       <c r="A158" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D158" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E158" s="13">
@@ -5921,13 +5924,13 @@
       <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="D159" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E159" s="13">
@@ -5938,13 +5941,13 @@
       <c r="A160" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="D160" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E160" s="13">
@@ -5955,13 +5958,13 @@
       <c r="A161" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D161" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E161" s="13">
@@ -5972,13 +5975,13 @@
       <c r="A162" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="D162" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E162" s="13">
@@ -5989,13 +5992,13 @@
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E163" s="13">
@@ -6006,13 +6009,13 @@
       <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D164" s="16" t="s">
+      <c r="D164" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E164" s="13">
@@ -6023,13 +6026,13 @@
       <c r="A165" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D165" s="16" t="s">
+      <c r="D165" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E165" s="13">
@@ -6040,13 +6043,13 @@
       <c r="A166" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D166" s="16" t="s">
+      <c r="D166" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E166" s="13">
@@ -6057,13 +6060,13 @@
       <c r="A167" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="D167" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E167" s="13">
@@ -6074,13 +6077,13 @@
       <c r="A168" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="D168" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E168" s="13">
@@ -6091,13 +6094,13 @@
       <c r="A169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E169" s="13">
@@ -6108,13 +6111,13 @@
       <c r="A170" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C170" s="16" t="s">
+      <c r="C170" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D170" s="16" t="s">
+      <c r="D170" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E170" s="13">
@@ -6125,13 +6128,13 @@
       <c r="A171" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C171" s="16" t="s">
+      <c r="C171" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D171" s="16" t="s">
+      <c r="D171" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E171" s="13">
@@ -6142,13 +6145,13 @@
       <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C172" s="16" t="s">
+      <c r="C172" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="D172" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E172" s="13">
@@ -6312,13 +6315,13 @@
       <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E182" s="13"/>
@@ -6327,13 +6330,13 @@
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E183" s="13"/>
@@ -6342,13 +6345,13 @@
       <c r="A184" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E184" s="13"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -719,10 +719,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3287,7 +3287,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="13">
-        <v>34.2</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -3303,7 +3303,7 @@
       <c r="D3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>36.0</v>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
       <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>35.4</v>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="D5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>33.0</v>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       <c r="D6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>57.0</v>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="13">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -3389,7 +3389,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="13">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -3406,7 +3406,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="13">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -3422,7 +3422,7 @@
       <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>8.8</v>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       <c r="D11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>17.5</v>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="D12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>15.8</v>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       <c r="D13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>32.8</v>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       <c r="D14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <v>20.5</v>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       <c r="D15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>26.5</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       <c r="D16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>3.2</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       <c r="D17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <v>2.4</v>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
       <c r="D18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="14">
         <v>2.6</v>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -3665,7 +3665,7 @@
       <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="14">
         <v>33.2</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="14">
         <v>35.7</v>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       <c r="D27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="14">
         <v>35.2</v>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       <c r="D28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
@@ -3731,7 +3731,7 @@
       <c r="D29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="14">
         <v>56.86</v>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       <c r="D30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="14">
         <v>8.5</v>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       <c r="D31" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="14">
         <v>20.5</v>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       <c r="D32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="14">
         <v>36.76</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       <c r="D33" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="14">
         <v>14.71</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="D34" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="14">
         <v>83.62</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="D35" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="14">
         <v>32.8</v>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="D36" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="14">
         <v>18.9</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       <c r="D37" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="14">
         <v>2.3</v>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>101</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="13">
+      <c r="E38" s="14">
         <v>4.5</v>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
         <v>101</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="13">
+      <c r="E39" s="14">
         <v>9.0</v>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
         <v>101</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="13">
+      <c r="E40" s="14">
         <v>12.0</v>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
         <v>101</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="13">
+      <c r="E41" s="14">
         <v>25.0</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       <c r="D42" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="14">
         <v>83.0</v>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       <c r="D43" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="14">
         <v>65.0</v>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       <c r="D44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="14">
         <v>14.0</v>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       <c r="D45" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="14">
         <v>19.5</v>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       <c r="D46" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="14">
         <v>22.0</v>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       <c r="D47" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="14">
         <v>27.0</v>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       <c r="D48" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="14">
         <v>8.3</v>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       <c r="D49" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="14">
         <v>20.08</v>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="D50" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="14">
         <v>36.0</v>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="D51" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="14">
         <v>55.68</v>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       <c r="D52" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="14">
         <v>81.88</v>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       <c r="D53" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="14">
         <v>14.4</v>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       <c r="D54" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="14">
         <v>32.12</v>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       <c r="D55" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="14">
         <v>18.0</v>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       <c r="D56" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="14">
         <v>21.0</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       <c r="D57" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="14">
         <v>8.0</v>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       <c r="D58" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="14">
         <v>18.56</v>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       <c r="D59" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="14">
         <v>33.27</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       <c r="D60" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="14">
         <v>51.46</v>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="D61" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="14">
         <v>75.68</v>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       <c r="D62" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="14">
         <v>13.31</v>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       <c r="D63" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="14">
         <v>29.69</v>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="D64" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="14">
         <v>480.0</v>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       <c r="D65" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="14">
         <v>580.0</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="D66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="14">
         <v>35.9</v>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="14">
         <v>33.3</v>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       <c r="D68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="14">
         <v>35.4</v>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="14">
         <v>33.3</v>
       </c>
     </row>
@@ -4420,7 +4420,7 @@
       <c r="D70" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="14">
         <v>57.01</v>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       <c r="D71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="14">
         <v>20.56</v>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="D72" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="14">
         <v>36.86</v>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="14">
         <v>8.29</v>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       <c r="D74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="14">
         <v>14.85</v>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       <c r="D75" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="14">
         <v>32.89</v>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       <c r="D76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="14">
         <v>147.45</v>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       <c r="D77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="14">
         <v>56.58</v>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       <c r="D78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="14">
         <v>20.4</v>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       <c r="D79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="14">
         <v>36.58</v>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="D80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="14">
         <v>8.22</v>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       <c r="D81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="14">
         <v>14.63</v>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
       <c r="D82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="14">
         <v>32.64</v>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       <c r="D83" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="14">
         <v>14.63</v>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       <c r="D84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="14">
         <v>53.58</v>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       <c r="D85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="14">
         <v>19.32</v>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
       <c r="D86" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="14">
         <v>34.64</v>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       <c r="D87" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="14">
         <v>7.79</v>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       <c r="D88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="14">
         <v>13.86</v>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       <c r="D89" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="14">
         <v>30.91</v>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
       <c r="D90" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="14">
         <v>138.56</v>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       <c r="D91" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="14">
         <v>13.24</v>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="D92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="14">
         <v>13.24</v>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="D93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="14">
         <v>18.06</v>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       <c r="D94" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="14">
         <v>18.94</v>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       <c r="D95" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="14">
         <v>23.19</v>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       <c r="D96" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="14">
         <v>23.23</v>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       <c r="D97" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="14">
         <v>3.81</v>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       <c r="D98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="14">
         <v>3.81</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       <c r="D99" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="14">
         <v>3.89</v>
       </c>
     </row>
@@ -4930,7 +4930,7 @@
       <c r="D100" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="14">
         <v>3.89</v>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       <c r="D101" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="14">
         <v>3.89</v>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       <c r="D102" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="14">
         <v>3.89</v>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       <c r="D103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="14">
         <v>3.89</v>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       <c r="D104" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="14">
         <v>5.63</v>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       <c r="D105" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="14">
         <v>5.48</v>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
       <c r="D106" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="14">
         <v>5.09</v>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       <c r="D107" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="14">
         <v>6.1</v>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       <c r="D108" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E108" s="13">
+      <c r="E108" s="14">
         <v>6.1</v>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       <c r="D109" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="14">
         <v>5.83</v>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       <c r="D110" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="14">
         <v>33.2</v>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       <c r="D111" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="14">
         <v>35.6</v>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       <c r="D112" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="14">
         <v>58.0</v>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="D113" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="14">
         <v>21.0</v>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       <c r="D114" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="14">
         <v>38.0</v>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       <c r="D115" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="14">
         <v>9.0</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       <c r="D116" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="14">
         <v>17.0</v>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
       <c r="D117" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="14">
         <v>13.0</v>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       <c r="D118" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="14">
         <v>18.0</v>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       <c r="D119" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="14">
         <v>23.0</v>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
       <c r="D120" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E120" s="13">
+      <c r="E120" s="14">
         <v>660.0</v>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       <c r="D121" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="14">
         <v>30.5</v>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
       <c r="D122" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E122" s="13">
+      <c r="E122" s="14">
         <v>33.5</v>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       <c r="D123" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="14">
         <v>32.5</v>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       <c r="D124" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="14">
         <v>29.0</v>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       <c r="D125" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="14">
         <v>56.5</v>
       </c>
     </row>
@@ -5372,7 +5372,7 @@
       <c r="D126" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E126" s="13">
+      <c r="E126" s="14">
         <v>36.5</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       <c r="D127" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="14">
         <v>33.5</v>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       <c r="D128" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E128" s="13">
+      <c r="E128" s="14">
         <v>15.0</v>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       <c r="D129" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E129" s="13">
+      <c r="E129" s="14">
         <v>8.5</v>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       <c r="D130" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E130" s="13">
+      <c r="E130" s="14">
         <v>21.0</v>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       <c r="D131" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="14">
         <v>32.5</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       <c r="D132" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E132" s="13">
+      <c r="E132" s="14">
         <v>10.0</v>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="D133" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E133" s="13">
+      <c r="E133" s="14">
         <v>2.8</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       <c r="D134" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E134" s="13">
+      <c r="E134" s="14">
         <v>1.05</v>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       <c r="D135" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E135" s="13">
+      <c r="E135" s="14">
         <v>2.9</v>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       <c r="D136" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E136" s="13">
+      <c r="E136" s="14">
         <v>2.5</v>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       <c r="D137" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="14">
         <v>9.2</v>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       <c r="D138" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="14">
         <v>8.5</v>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       <c r="D139" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="14">
         <v>11.0</v>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       <c r="D140" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E140" s="13">
+      <c r="E140" s="14">
         <v>30.0</v>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       <c r="D141" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E141" s="14">
         <v>33.0</v>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       <c r="D142" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E142" s="13">
+      <c r="E142" s="14">
         <v>32.0</v>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       <c r="D143" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="13">
+      <c r="E143" s="14">
         <v>28.5</v>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
       <c r="D144" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="14">
         <v>57.5</v>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       <c r="D145" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E145" s="13">
+      <c r="E145" s="14">
         <v>37.2</v>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
       <c r="D146" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E146" s="13">
+      <c r="E146" s="14">
         <v>8.5</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       <c r="D147" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="14">
         <v>33.3</v>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       <c r="D148" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E148" s="13">
+      <c r="E148" s="14">
         <v>10.0</v>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="D149" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="14">
         <v>2.5</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       <c r="D150" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="14">
         <v>1.02</v>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       <c r="D151" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="14">
         <v>2.9</v>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
       <c r="D152" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="14">
         <v>2.7</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       <c r="D153" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="14">
         <v>2.5</v>
       </c>
     </row>
@@ -5848,7 +5848,7 @@
       <c r="D154" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="14">
         <v>8.9</v>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       <c r="D155" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="14">
         <v>8.2</v>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       <c r="D156" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E156" s="13">
+      <c r="E156" s="14">
         <v>11.0</v>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       <c r="D157" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E157" s="13">
+      <c r="E157" s="14">
         <v>29.9</v>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       <c r="D158" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="14">
         <v>33.5</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       <c r="D159" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="14">
         <v>32.5</v>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       <c r="D160" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E160" s="13">
+      <c r="E160" s="14">
         <v>28.4</v>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       <c r="D161" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="14">
         <v>56.5</v>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
       <c r="D162" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="14">
         <v>36.6</v>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       <c r="D163" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="14">
         <v>8.3</v>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       <c r="D164" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E164" s="13">
+      <c r="E164" s="14">
         <v>8.0</v>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       <c r="D165" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="14">
         <v>6.5</v>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       <c r="D166" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="13">
+      <c r="E166" s="14">
         <v>16.5</v>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       <c r="D167" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E167" s="13">
+      <c r="E167" s="14">
         <v>2.5</v>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       <c r="D168" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E168" s="13">
+      <c r="E168" s="14">
         <v>1.05</v>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="D169" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="14">
         <v>2.85</v>
       </c>
     </row>
@@ -6120,7 +6120,7 @@
       <c r="D170" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E170" s="13">
+      <c r="E170" s="14">
         <v>2.55</v>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       <c r="D171" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E171" s="13">
+      <c r="E171" s="14">
         <v>0.75</v>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="D172" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E172" s="13">
+      <c r="E172" s="14">
         <v>9.5</v>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       <c r="D173" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E173" s="13">
+      <c r="E173" s="14">
         <v>30.5</v>
       </c>
     </row>
@@ -6188,7 +6188,7 @@
       <c r="D174" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E174" s="13">
+      <c r="E174" s="14">
         <v>33.7</v>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
       <c r="D175" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E175" s="13">
+      <c r="E175" s="14">
         <v>32.7</v>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="D176" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E176" s="13">
+      <c r="E176" s="14">
         <v>29.0</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       <c r="D177" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E177" s="13">
+      <c r="E177" s="14">
         <v>57.3</v>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       <c r="D178" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E178" s="13">
+      <c r="E178" s="14">
         <v>13.5</v>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       <c r="D179" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E179" s="13">
+      <c r="E179" s="14">
         <v>2.9</v>
       </c>
     </row>
@@ -6290,7 +6290,7 @@
       <c r="D180" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E180" s="13">
+      <c r="E180" s="14">
         <v>28.0</v>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       <c r="D181" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E181" s="13">
+      <c r="E181" s="14">
         <v>15.0</v>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       <c r="D182" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E182" s="13"/>
+      <c r="E182" s="14"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="7" t="s">
@@ -6339,7 +6339,7 @@
       <c r="D183" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E183" s="13"/>
+      <c r="E183" s="14"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="7" t="s">
@@ -6354,7 +6354,7 @@
       <c r="D184" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E184" s="13"/>
+      <c r="E184" s="14"/>
     </row>
     <row r="185" ht="14.25" customHeight="1"/>
     <row r="186" ht="14.25" customHeight="1"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -5661,8 +5661,8 @@
       <c r="D143" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="14">
-        <v>28.5</v>
+      <c r="E143" s="13">
+        <v>28.2</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -4420,8 +4420,8 @@
       <c r="D70" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="14">
-        <v>57.01</v>
+      <c r="E70" s="13">
+        <v>56.05</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -4437,8 +4437,8 @@
       <c r="D71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="14">
-        <v>20.56</v>
+      <c r="E71" s="13">
+        <v>20.21</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -4454,8 +4454,8 @@
       <c r="D72" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="14">
-        <v>36.86</v>
+      <c r="E72" s="13">
+        <v>36.24</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -4471,8 +4471,8 @@
       <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="14">
-        <v>8.29</v>
+      <c r="E73" s="13">
+        <v>8.15</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -4488,8 +4488,8 @@
       <c r="D74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="14">
-        <v>14.85</v>
+      <c r="E74" s="13">
+        <v>14.6</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -4522,8 +4522,8 @@
       <c r="D76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E76" s="14">
-        <v>147.45</v>
+      <c r="E76" s="13">
+        <v>144.96</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -4539,8 +4539,8 @@
       <c r="D77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="14">
-        <v>56.58</v>
+      <c r="E77" s="13">
+        <v>55.63</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -4556,8 +4556,8 @@
       <c r="D78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="14">
-        <v>20.4</v>
+      <c r="E78" s="13">
+        <v>20.06</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -4573,8 +4573,8 @@
       <c r="D79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="14">
-        <v>36.58</v>
+      <c r="E79" s="13">
+        <v>35.97</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -4590,8 +4590,8 @@
       <c r="D80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="14">
-        <v>8.22</v>
+      <c r="E80" s="13">
+        <v>8.09</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -4607,8 +4607,8 @@
       <c r="D81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="14">
-        <v>14.63</v>
+      <c r="E81" s="13">
+        <v>14.39</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -4624,8 +4624,8 @@
       <c r="D82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="14">
-        <v>32.64</v>
+      <c r="E82" s="13">
+        <v>32.09</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -4641,8 +4641,8 @@
       <c r="D83" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="14">
-        <v>14.63</v>
+      <c r="E83" s="13">
+        <v>143.87</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -4658,8 +4658,8 @@
       <c r="D84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="14">
-        <v>53.58</v>
+      <c r="E84" s="13">
+        <v>53.12</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -618,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -646,6 +646,11 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -687,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -728,10 +733,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3716,7 +3724,9 @@
       <c r="D28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="13">
+        <v>33.2</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
@@ -4675,8 +4685,8 @@
       <c r="D85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E85" s="14">
-        <v>19.32</v>
+      <c r="E85" s="13">
+        <v>19.16</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -4692,8 +4702,8 @@
       <c r="D86" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E86" s="14">
-        <v>34.64</v>
+      <c r="E86" s="13">
+        <v>34.35</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -4709,8 +4719,8 @@
       <c r="D87" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E87" s="14">
-        <v>7.79</v>
+      <c r="E87" s="13">
+        <v>7.72</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -4726,8 +4736,8 @@
       <c r="D88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="14">
-        <v>13.86</v>
+      <c r="E88" s="13">
+        <v>13.14</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -4760,8 +4770,8 @@
       <c r="D90" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E90" s="14">
-        <v>138.56</v>
+      <c r="E90" s="13">
+        <v>137.39</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -4879,8 +4889,8 @@
       <c r="D97" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E97" s="14">
-        <v>3.81</v>
+      <c r="E97" s="13">
+        <v>3.78</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
@@ -4896,8 +4906,8 @@
       <c r="D98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="14">
-        <v>3.81</v>
+      <c r="E98" s="13">
+        <v>3.78</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -4913,8 +4923,8 @@
       <c r="D99" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E99" s="14">
-        <v>3.89</v>
+      <c r="E99" s="13">
+        <v>3.86</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -4930,8 +4940,8 @@
       <c r="D100" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E100" s="14">
-        <v>3.89</v>
+      <c r="E100" s="13">
+        <v>3.86</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -4947,8 +4957,8 @@
       <c r="D101" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E101" s="14">
-        <v>3.89</v>
+      <c r="E101" s="13">
+        <v>3.86</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
@@ -5290,6 +5300,9 @@
       <c r="E121" s="14">
         <v>30.5</v>
       </c>
+      <c r="G121" s="18">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="7" t="s">
@@ -5307,6 +5320,9 @@
       <c r="E122" s="14">
         <v>33.5</v>
       </c>
+      <c r="G122" s="18">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="7" t="s">
@@ -5324,6 +5340,9 @@
       <c r="E123" s="14">
         <v>32.5</v>
       </c>
+      <c r="G123" s="18">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="7" t="s">
@@ -5341,6 +5360,9 @@
       <c r="E124" s="14">
         <v>29.0</v>
       </c>
+      <c r="G124" s="18">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="7" t="s">
@@ -5902,6 +5924,9 @@
       <c r="E157" s="14">
         <v>29.9</v>
       </c>
+      <c r="G157" s="18">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="7" t="s">
@@ -5919,6 +5944,9 @@
       <c r="E158" s="14">
         <v>33.5</v>
       </c>
+      <c r="G158" s="18">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="7" t="s">
@@ -5936,6 +5964,9 @@
       <c r="E159" s="14">
         <v>32.5</v>
       </c>
+      <c r="G159" s="18">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="7" t="s">
@@ -5953,6 +5984,9 @@
       <c r="E160" s="14">
         <v>28.4</v>
       </c>
+      <c r="G160" s="18">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="7" t="s">
@@ -6315,13 +6349,13 @@
       <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B182" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="20" t="s">
         <v>182</v>
       </c>
       <c r="E182" s="14"/>
@@ -6330,13 +6364,13 @@
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D183" s="19" t="s">
+      <c r="D183" s="20" t="s">
         <v>182</v>
       </c>
       <c r="E183" s="14"/>
@@ -6345,13 +6379,13 @@
       <c r="A184" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D184" s="19" t="s">
+      <c r="D184" s="20" t="s">
         <v>182</v>
       </c>
       <c r="E184" s="14"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -618,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -646,11 +646,6 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -692,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -733,13 +728,10 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4362,8 +4354,8 @@
       <c r="D66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="14">
-        <v>35.9</v>
+      <c r="E66" s="13">
+        <v>32.5</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -5300,9 +5292,6 @@
       <c r="E121" s="14">
         <v>30.5</v>
       </c>
-      <c r="G121" s="18">
-        <v>29.5</v>
-      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="7" t="s">
@@ -5320,9 +5309,6 @@
       <c r="E122" s="14">
         <v>33.5</v>
       </c>
-      <c r="G122" s="18">
-        <v>33.5</v>
-      </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="7" t="s">
@@ -5340,9 +5326,6 @@
       <c r="E123" s="14">
         <v>32.5</v>
       </c>
-      <c r="G123" s="18">
-        <v>32.5</v>
-      </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="7" t="s">
@@ -5360,9 +5343,6 @@
       <c r="E124" s="14">
         <v>29.0</v>
       </c>
-      <c r="G124" s="18">
-        <v>28.5</v>
-      </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="7" t="s">
@@ -5924,9 +5904,6 @@
       <c r="E157" s="14">
         <v>29.9</v>
       </c>
-      <c r="G157" s="18">
-        <v>30.0</v>
-      </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="7" t="s">
@@ -5944,9 +5921,6 @@
       <c r="E158" s="14">
         <v>33.5</v>
       </c>
-      <c r="G158" s="18">
-        <v>33.5</v>
-      </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="7" t="s">
@@ -5964,9 +5938,6 @@
       <c r="E159" s="14">
         <v>32.5</v>
       </c>
-      <c r="G159" s="18">
-        <v>32.5</v>
-      </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="7" t="s">
@@ -5984,9 +5955,6 @@
       <c r="E160" s="14">
         <v>28.4</v>
       </c>
-      <c r="G160" s="18">
-        <v>28.5</v>
-      </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="7" t="s">
@@ -6349,13 +6317,13 @@
       <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="C182" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D182" s="20" t="s">
+      <c r="D182" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E182" s="14"/>
@@ -6364,13 +6332,13 @@
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="19" t="s">
+      <c r="B183" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D183" s="20" t="s">
+      <c r="D183" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E183" s="14"/>
@@ -6379,13 +6347,13 @@
       <c r="A184" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="19" t="s">
+      <c r="B184" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="19" t="s">
+      <c r="C184" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D184" s="20" t="s">
+      <c r="D184" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E184" s="14"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -7,11 +7,13 @@
     <sheet state="visible" name="informacion" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="productos" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$B$1:$B$1001</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="9GWL3j2FR6gJvIEfwJRgofAKm8bGYzsWsMfLVPPsjlc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="iAMT1MHaHV5/Hi1+QGhbiKhpQo90KKQKx1U+3kq0rXA="/>
     </ext>
   </extLst>
 </workbook>
@@ -5090,21 +5092,11 @@
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E110" s="14">
-        <v>33.2</v>
-      </c>
+      <c r="A110" s="7"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="14"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="7" t="s">
@@ -5114,13 +5106,13 @@
         <v>50</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E111" s="14">
-        <v>35.6</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
@@ -5128,16 +5120,16 @@
         <v>19</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E112" s="14">
-        <v>58.0</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
@@ -5148,13 +5140,13 @@
         <v>57</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E113" s="14">
-        <v>21.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
@@ -5165,13 +5157,13 @@
         <v>57</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E114" s="14">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
@@ -5182,13 +5174,13 @@
         <v>57</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E115" s="14">
-        <v>9.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
@@ -5199,13 +5191,13 @@
         <v>57</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E116" s="14">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
@@ -5213,16 +5205,16 @@
         <v>19</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E117" s="14">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -5233,13 +5225,13 @@
         <v>64</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E118" s="14">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
@@ -5250,47 +5242,47 @@
         <v>64</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E119" s="14">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E120" s="14">
         <v>23.0</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="8" t="s">
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E121" s="14">
         <v>660.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E121" s="14">
-        <v>30.5</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
@@ -5301,13 +5293,13 @@
         <v>50</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="14">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
@@ -5318,13 +5310,13 @@
         <v>50</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E123" s="14">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
@@ -5335,13 +5327,13 @@
         <v>50</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E124" s="14">
-        <v>29.0</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
@@ -5349,16 +5341,16 @@
         <v>2</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E125" s="14">
-        <v>56.5</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
@@ -5369,13 +5361,13 @@
         <v>57</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D126" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E126" s="14">
-        <v>36.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
@@ -5386,13 +5378,13 @@
         <v>57</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D127" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E127" s="14">
-        <v>33.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
@@ -5403,13 +5395,13 @@
         <v>57</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E128" s="14">
-        <v>15.0</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
@@ -5420,13 +5412,13 @@
         <v>57</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E129" s="14">
-        <v>8.5</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
@@ -5437,13 +5429,13 @@
         <v>57</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D130" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E130" s="14">
-        <v>21.0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
@@ -5454,13 +5446,13 @@
         <v>57</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E131" s="14">
-        <v>32.5</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -5468,16 +5460,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="E132" s="14">
-        <v>10.0</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
@@ -5488,13 +5480,13 @@
         <v>64</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D133" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E133" s="14">
-        <v>2.8</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
@@ -5502,16 +5494,16 @@
         <v>2</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E134" s="14">
-        <v>1.05</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
@@ -5522,13 +5514,13 @@
         <v>74</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E135" s="14">
-        <v>2.9</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
@@ -5539,13 +5531,13 @@
         <v>74</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E136" s="14">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
@@ -5553,16 +5545,16 @@
         <v>2</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E137" s="14">
-        <v>9.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
@@ -5573,13 +5565,13 @@
         <v>180</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E138" s="14">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
@@ -5590,30 +5582,30 @@
         <v>180</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D139" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E139" s="14">
-        <v>11.0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="E140" s="14">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
@@ -5624,13 +5616,13 @@
         <v>50</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D141" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E141" s="14">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
@@ -5641,13 +5633,13 @@
         <v>50</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E142" s="14">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
@@ -5658,13 +5650,13 @@
         <v>50</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="13">
-        <v>28.2</v>
+      <c r="E143" s="14">
+        <v>32.0</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
@@ -5672,16 +5664,16 @@
         <v>4</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E144" s="14">
-        <v>57.5</v>
+        <v>55</v>
+      </c>
+      <c r="E144" s="13">
+        <v>28.2</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
@@ -5692,13 +5684,13 @@
         <v>57</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E145" s="14">
-        <v>37.2</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
@@ -5709,13 +5701,13 @@
         <v>57</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E146" s="14">
-        <v>8.5</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
@@ -5726,13 +5718,13 @@
         <v>57</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D147" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E147" s="14">
-        <v>33.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
@@ -5740,16 +5732,16 @@
         <v>4</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="E148" s="14">
-        <v>10.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
@@ -5760,13 +5752,13 @@
         <v>64</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E149" s="14">
-        <v>2.5</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
@@ -5774,16 +5766,16 @@
         <v>4</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E150" s="14">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
@@ -5794,13 +5786,13 @@
         <v>74</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E151" s="14">
-        <v>2.9</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
@@ -5811,13 +5803,13 @@
         <v>74</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E152" s="14">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
@@ -5828,13 +5820,13 @@
         <v>74</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E153" s="14">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
@@ -5842,16 +5834,16 @@
         <v>4</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E154" s="14">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
@@ -5862,13 +5854,13 @@
         <v>180</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E155" s="14">
-        <v>8.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
@@ -5879,30 +5871,30 @@
         <v>180</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E156" s="14">
-        <v>11.0</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="E157" s="14">
-        <v>29.9</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
@@ -5913,13 +5905,13 @@
         <v>50</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E158" s="14">
-        <v>33.5</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
@@ -5930,13 +5922,13 @@
         <v>50</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E159" s="14">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
@@ -5947,13 +5939,13 @@
         <v>50</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E160" s="14">
-        <v>28.4</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
@@ -5961,16 +5953,16 @@
         <v>6</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E161" s="14">
-        <v>56.5</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
@@ -5981,13 +5973,13 @@
         <v>57</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E162" s="14">
-        <v>36.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
@@ -5998,13 +5990,13 @@
         <v>57</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E163" s="14">
-        <v>8.3</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
@@ -6012,16 +6004,16 @@
         <v>6</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="E164" s="14">
-        <v>8.0</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
@@ -6032,13 +6024,13 @@
         <v>64</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E165" s="14">
-        <v>6.5</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
@@ -6049,13 +6041,13 @@
         <v>64</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E166" s="14">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
@@ -6066,13 +6058,13 @@
         <v>64</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E167" s="14">
-        <v>2.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -6080,16 +6072,16 @@
         <v>6</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E168" s="14">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
@@ -6100,13 +6092,13 @@
         <v>74</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E169" s="14">
-        <v>2.85</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
@@ -6117,13 +6109,13 @@
         <v>74</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E170" s="14">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -6134,13 +6126,13 @@
         <v>74</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E171" s="14">
-        <v>0.75</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
@@ -6148,33 +6140,33 @@
         <v>6</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E172" s="14">
-        <v>9.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="E173" s="14">
-        <v>30.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
@@ -6185,13 +6177,13 @@
         <v>50</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="14">
-        <v>33.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
@@ -6202,13 +6194,13 @@
         <v>50</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E175" s="14">
-        <v>32.7</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
@@ -6219,13 +6211,13 @@
         <v>50</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E176" s="14">
-        <v>29.0</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
@@ -6233,16 +6225,16 @@
         <v>8</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E177" s="14">
-        <v>57.3</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
@@ -6250,16 +6242,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="E178" s="14">
-        <v>13.5</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
@@ -6267,16 +6259,16 @@
         <v>8</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E179" s="14">
-        <v>2.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
@@ -6284,16 +6276,16 @@
         <v>8</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E180" s="14">
-        <v>28.0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -6304,29 +6296,31 @@
         <v>193</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E181" s="14">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E182" s="14"/>
+      <c r="B182" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E182" s="14">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="7" t="s">
@@ -6336,7 +6330,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D183" s="19" t="s">
         <v>182</v>
@@ -6351,14 +6345,28 @@
         <v>180</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D184" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E184" s="14"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="A185" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185" s="14"/>
+    </row>
     <row r="186" ht="14.25" customHeight="1"/>
     <row r="187" ht="14.25" customHeight="1"/>
     <row r="188" ht="14.25" customHeight="1"/>
@@ -7174,7 +7182,9 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$B$1:$B$1001"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -8,19 +8,19 @@
     <sheet state="visible" name="productos" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$B$1:$B$1001</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$B$1:$B$1002</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="iAMT1MHaHV5/Hi1+QGhbiKhpQo90KKQKx1U+3kq0rXA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="4lchX6I6c2pq3Q8cPZS7KkMcdOLrBHnkl+x/u6y5A7g="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="197">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -517,6 +517,18 @@
     <t>Clavo P/CAL</t>
   </si>
   <si>
+    <t>Morteros</t>
+  </si>
+  <si>
+    <t>Rapimix Tarrajeo</t>
+  </si>
+  <si>
+    <t>Rapimix Pacasmayo</t>
+  </si>
+  <si>
+    <t>Rapimix Asentado</t>
+  </si>
+  <si>
     <t>Tubo de agua 1/2 SP</t>
   </si>
   <si>
@@ -560,18 +572,6 @@
   </si>
   <si>
     <t>Ladrillo techo 15</t>
-  </si>
-  <si>
-    <t>Morteros</t>
-  </si>
-  <si>
-    <t>Rapimix Asentado</t>
-  </si>
-  <si>
-    <t>Rapimix Pacasmayo</t>
-  </si>
-  <si>
-    <t>Rapimix Tarrajeo</t>
   </si>
   <si>
     <t>Rapimix Concreto Seco</t>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -727,6 +727,12 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5092,27 +5098,37 @@
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="7"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="14"/>
+      <c r="A110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" s="13">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E111" s="14">
-        <v>33.2</v>
+      <c r="A111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" s="13">
+        <v>10.4</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
@@ -5123,13 +5139,13 @@
         <v>50</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E112" s="14">
-        <v>35.6</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
@@ -5137,16 +5153,16 @@
         <v>19</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E113" s="14">
-        <v>58.0</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
@@ -5157,13 +5173,13 @@
         <v>57</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E114" s="14">
-        <v>21.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
@@ -5174,13 +5190,13 @@
         <v>57</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E115" s="14">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
@@ -5191,13 +5207,13 @@
         <v>57</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E116" s="14">
-        <v>9.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
@@ -5208,13 +5224,13 @@
         <v>57</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E117" s="14">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -5222,16 +5238,16 @@
         <v>19</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E118" s="14">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
@@ -5242,13 +5258,13 @@
         <v>64</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E119" s="14">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
@@ -5259,931 +5275,931 @@
         <v>64</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E120" s="14">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" s="14">
         <v>23.0</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="8" t="s">
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E121" s="14">
+      <c r="C122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E122" s="14">
         <v>660.0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E122" s="14">
-        <v>30.5</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D123" s="17" t="s">
+      <c r="C123" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E123" s="14">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>55</v>
+      <c r="C124" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E124" s="14">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="17" t="s">
+      <c r="C125" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E125" s="14">
-        <v>29.0</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>87</v>
+      <c r="B126" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E126" s="14">
-        <v>56.5</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D127" s="17" t="s">
+      <c r="C127" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E127" s="14">
-        <v>36.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D128" s="17" t="s">
+      <c r="C128" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E128" s="14">
-        <v>33.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D129" s="17" t="s">
+      <c r="C129" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E129" s="14">
-        <v>15.0</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D130" s="17" t="s">
+      <c r="C130" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E130" s="14">
-        <v>8.5</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D131" s="17" t="s">
+      <c r="C131" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E131" s="14">
-        <v>21.0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D132" s="17" t="s">
+      <c r="C132" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E132" s="14">
-        <v>32.5</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>175</v>
+      <c r="B133" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E133" s="14">
-        <v>10.0</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>175</v>
+      <c r="C134" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E134" s="14">
-        <v>2.8</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>178</v>
+      <c r="B135" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E135" s="14">
-        <v>1.05</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>178</v>
+      <c r="C136" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E136" s="14">
-        <v>2.9</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C137" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>178</v>
+      <c r="C137" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E137" s="14">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C138" s="17" t="s">
+      <c r="B138" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E138" s="14">
-        <v>9.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>182</v>
+      <c r="B139" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E139" s="14">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>182</v>
+      <c r="B140" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E140" s="14">
-        <v>11.0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E141" s="14">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C142" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D142" s="17" t="s">
+      <c r="C142" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E142" s="14">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>55</v>
+      <c r="C143" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E143" s="14">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D144" s="17" t="s">
+      <c r="C144" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="13">
-        <v>28.2</v>
+      <c r="E144" s="14">
+        <v>32.0</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E145" s="14">
-        <v>57.5</v>
+      <c r="B145" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="13">
+        <v>28.2</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C146" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D146" s="17" t="s">
+      <c r="C146" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E146" s="14">
-        <v>37.2</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D147" s="17" t="s">
+      <c r="C147" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E147" s="14">
-        <v>8.5</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D148" s="17" t="s">
+      <c r="C148" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D148" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E148" s="14">
-        <v>33.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>175</v>
+      <c r="B149" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E149" s="14">
-        <v>10.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C150" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>175</v>
+      <c r="C150" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E150" s="14">
-        <v>2.5</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>178</v>
+      <c r="B151" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E151" s="14">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>178</v>
+      <c r="C152" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E152" s="14">
-        <v>2.9</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>178</v>
+      <c r="C153" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E153" s="14">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C154" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>178</v>
+      <c r="C154" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E154" s="14">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D155" s="17" t="s">
+      <c r="B155" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D155" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E155" s="14">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>182</v>
+      <c r="B156" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E156" s="14">
-        <v>8.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>182</v>
+      <c r="B157" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E157" s="14">
-        <v>11.0</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E158" s="14">
-        <v>29.9</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D159" s="17" t="s">
+      <c r="C159" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E159" s="14">
-        <v>33.5</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C160" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>55</v>
+      <c r="C160" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="E160" s="14">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C161" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D161" s="17" t="s">
+      <c r="C161" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E161" s="14">
-        <v>28.4</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>87</v>
+      <c r="B162" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E162" s="14">
-        <v>56.5</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D163" s="17" t="s">
+      <c r="C163" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D163" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E163" s="14">
-        <v>36.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C164" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D164" s="17" t="s">
+      <c r="C164" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D164" s="19" t="s">
         <v>87</v>
       </c>
       <c r="E164" s="14">
-        <v>8.3</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>175</v>
+      <c r="B165" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E165" s="14">
-        <v>8.0</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C166" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>175</v>
+      <c r="C166" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E166" s="14">
-        <v>6.5</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C167" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>175</v>
+      <c r="C167" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E167" s="14">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C168" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>175</v>
+      <c r="C168" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E168" s="14">
-        <v>2.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>178</v>
+      <c r="B169" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="E169" s="14">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C170" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>178</v>
+      <c r="C170" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E170" s="14">
-        <v>2.85</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C171" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>178</v>
+      <c r="C171" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E171" s="14">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C172" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>178</v>
+      <c r="C172" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E172" s="14">
-        <v>0.75</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B173" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D173" s="17" t="s">
+      <c r="B173" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D173" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E173" s="14">
-        <v>9.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E174" s="14">
-        <v>30.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
@@ -6194,13 +6210,13 @@
         <v>50</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E175" s="14">
-        <v>33.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
@@ -6211,13 +6227,13 @@
         <v>50</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E176" s="14">
-        <v>32.7</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
@@ -6228,13 +6244,13 @@
         <v>50</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E177" s="14">
-        <v>29.0</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
@@ -6242,16 +6258,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E178" s="14">
-        <v>57.3</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
@@ -6259,16 +6275,16 @@
         <v>8</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="E179" s="14">
-        <v>13.5</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
@@ -6276,16 +6292,16 @@
         <v>8</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E180" s="14">
-        <v>2.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -6293,16 +6309,16 @@
         <v>8</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E181" s="14">
-        <v>28.0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -6313,42 +6329,44 @@
         <v>193</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E182" s="14">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E183" s="14"/>
+      <c r="B183" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E183" s="14">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>182</v>
+      <c r="B184" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="E184" s="14"/>
     </row>
@@ -6356,18 +6374,32 @@
       <c r="A185" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B185" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C185" s="18" t="s">
+      <c r="B185" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E185" s="14"/>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="A186" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C186" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D185" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E185" s="14"/>
-    </row>
-    <row r="186" ht="14.25" customHeight="1"/>
+      <c r="D186" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E186" s="14"/>
+    </row>
     <row r="187" ht="14.25" customHeight="1"/>
     <row r="188" ht="14.25" customHeight="1"/>
     <row r="189" ht="14.25" customHeight="1"/>
@@ -7183,8 +7215,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$B$1:$B$1001"/>
+  <autoFilter ref="$B$1:$B$1002"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -6368,7 +6368,9 @@
       <c r="D184" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E184" s="14"/>
+      <c r="E184" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="7" t="s">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -3380,7 +3380,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="13">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -6385,7 +6385,9 @@
       <c r="D185" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E185" s="14"/>
+      <c r="E185" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="7" t="s">
@@ -6400,7 +6402,9 @@
       <c r="D186" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E186" s="14"/>
+      <c r="E186" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="187" ht="14.25" customHeight="1"/>
     <row r="188" ht="14.25" customHeight="1"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -8,19 +8,19 @@
     <sheet state="visible" name="productos" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$B$1:$B$1002</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$A$1:$E$183</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="4lchX6I6c2pq3Q8cPZS7KkMcdOLrBHnkl+x/u6y5A7g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="rB3T5M62XP7RxN3+82YBVnTJowjlnO+RFtTMtbVhZJg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="162">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -223,22 +223,16 @@
     <t>Pavco</t>
   </si>
   <si>
-    <t>Tubo 2"</t>
-  </si>
-  <si>
-    <t>Tubo 4"</t>
-  </si>
-  <si>
-    <t>Tubo 1/2 c/r</t>
-  </si>
-  <si>
-    <t>Tubo 3/4 c/r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubo 3/4 Sell </t>
+    <t>Tubo de desagüe 2"</t>
+  </si>
+  <si>
+    <t>Tubo de desagüe 4"</t>
+  </si>
+  <si>
+    <t>Tubo de agua 1/2</t>
+  </si>
+  <si>
+    <t>Tubo de luz 3/4</t>
   </si>
   <si>
     <t>Koplast</t>
@@ -247,253 +241,199 @@
     <t>Ladrillos</t>
   </si>
   <si>
-    <t>Ladrillo Techo 12H</t>
+    <t>Ladrillo techo 12</t>
   </si>
   <si>
     <t>El Roble</t>
   </si>
   <si>
-    <t>Ladrillo Techo 15X30</t>
+    <t>Ladrillo techo 15</t>
   </si>
   <si>
     <t>Alambre</t>
   </si>
   <si>
-    <t>Alambre #16</t>
-  </si>
-  <si>
-    <t>Alambre #8</t>
+    <t>Alambre N° 16</t>
+  </si>
+  <si>
+    <t>Generico</t>
+  </si>
+  <si>
+    <t>Alambre N° 08</t>
   </si>
   <si>
     <t>Clavos</t>
   </si>
   <si>
-    <t xml:space="preserve">Clavo 2 </t>
-  </si>
-  <si>
-    <t>Clavo 2 1/2</t>
-  </si>
-  <si>
-    <t>Clavo 3</t>
-  </si>
-  <si>
-    <t>Clavo 4</t>
-  </si>
-  <si>
-    <t>Fierro 5/8</t>
+    <t>Clavo 2"</t>
+  </si>
+  <si>
+    <t>Clavo 2 1/2"</t>
+  </si>
+  <si>
+    <t>Clavo 3"</t>
+  </si>
+  <si>
+    <t>Clavo 4"</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 5/8</t>
   </si>
   <si>
     <t>Sider</t>
   </si>
   <si>
-    <t xml:space="preserve">fierro </t>
-  </si>
-  <si>
-    <t>fierro 1/4</t>
-  </si>
-  <si>
-    <t>sider</t>
-  </si>
-  <si>
-    <t>fierro 3/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sider </t>
-  </si>
-  <si>
-    <t>fierro 1/2</t>
-  </si>
-  <si>
-    <t>fierro</t>
-  </si>
-  <si>
-    <t>fierro 8</t>
-  </si>
-  <si>
-    <t>fierro 3/4</t>
-  </si>
-  <si>
-    <t>fierro 12mm</t>
-  </si>
-  <si>
-    <t>PAVCO</t>
-  </si>
-  <si>
-    <t>ITALI</t>
+    <t>Fierro Sider barra 1/4</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 3/8</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 1/2</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 8mm</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 3/4</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 12mm</t>
+  </si>
+  <si>
+    <t>Ital</t>
+  </si>
+  <si>
+    <t>Yeso</t>
   </si>
   <si>
     <t>YESO 8</t>
   </si>
   <si>
-    <t xml:space="preserve">YESO </t>
-  </si>
-  <si>
     <t>YESO 18</t>
   </si>
   <si>
     <t>YESO 28</t>
   </si>
   <si>
-    <t>CALL</t>
-  </si>
-  <si>
-    <t>CALAMINON  30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALAMINON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPERTECHO </t>
-  </si>
-  <si>
-    <t>CALAMINON  28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calaminon </t>
-  </si>
-  <si>
-    <t>mi techo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calamina </t>
-  </si>
-  <si>
-    <t>calamina 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aceros arequipa </t>
-  </si>
-  <si>
-    <t>calamina 20</t>
-  </si>
-  <si>
-    <t>calamina 22</t>
-  </si>
-  <si>
-    <t>calamina 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tortuga </t>
-  </si>
-  <si>
-    <t>fierro1/4</t>
-  </si>
-  <si>
-    <t>fierro 5/8</t>
-  </si>
-  <si>
-    <t>fierro 8mm</t>
-  </si>
-  <si>
-    <t>THINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICOLOR </t>
-  </si>
-  <si>
-    <t>BICOLOR 355</t>
-  </si>
-  <si>
-    <t>THIINER</t>
-  </si>
-  <si>
-    <t>BICOLOR 305</t>
-  </si>
-  <si>
-    <t>fierro  1/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miromina </t>
-  </si>
-  <si>
-    <t>fierro  1/2</t>
-  </si>
-  <si>
-    <t>fierro 12 mm</t>
-  </si>
-  <si>
-    <t>tanque  eterni</t>
-  </si>
-  <si>
-    <t>eternit  1100 ltros</t>
-  </si>
-  <si>
-    <t>eternit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanque rotoplas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotoplas </t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 5/8</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 3/8</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 1/2</t>
+    <t>Calaminon</t>
+  </si>
+  <si>
+    <t>Calaminon 30</t>
+  </si>
+  <si>
+    <t>Supertecho</t>
+  </si>
+  <si>
+    <t>Calaminon 28</t>
+  </si>
+  <si>
+    <t>Mi Techo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamina </t>
+  </si>
+  <si>
+    <t>Calamina 0.14</t>
+  </si>
+  <si>
+    <t>Calamina 0.20</t>
+  </si>
+  <si>
+    <t>Calamina 0.22</t>
+  </si>
+  <si>
+    <t>Calamina 0.25</t>
+  </si>
+  <si>
+    <t>Tortuga</t>
+  </si>
+  <si>
+    <t>Fierro A.A barra 1/4</t>
+  </si>
+  <si>
+    <t>Fierro A.A barra 3/4</t>
+  </si>
+  <si>
+    <t>Fierro A.A barra 12mm</t>
+  </si>
+  <si>
+    <t>Thiner</t>
+  </si>
+  <si>
+    <t>Bicolor 355</t>
+  </si>
+  <si>
+    <t>Bicolor</t>
+  </si>
+  <si>
+    <t>Bicolor 305</t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 1/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miromina </t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 3/8</t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 1/2</t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 5/8</t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 3/4</t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 8mm</t>
+  </si>
+  <si>
+    <t>Fierro Miromina barra 12mm</t>
+  </si>
+  <si>
+    <t>Tanques</t>
+  </si>
+  <si>
+    <t>Tanque Eternit  1100 ltros</t>
+  </si>
+  <si>
+    <t>Eternit</t>
+  </si>
+  <si>
+    <t>Tanque Rotoplas 1100 ltros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotoplas </t>
   </si>
   <si>
     <t>Fierro Sider barra 6mm</t>
   </si>
   <si>
-    <t>Fierro Sider barra 8mm</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 12mm</t>
-  </si>
-  <si>
     <t>Fierro Sider barra 1"</t>
   </si>
   <si>
-    <t>Importado</t>
-  </si>
-  <si>
-    <t>Calaminas</t>
-  </si>
-  <si>
-    <t>Calamina 0.14</t>
-  </si>
-  <si>
     <t>Calamina 0.18</t>
   </si>
   <si>
     <t>Prodac</t>
   </si>
   <si>
-    <t>Calamina 0.20</t>
-  </si>
-  <si>
-    <t>Calamina 0.22</t>
-  </si>
-  <si>
     <t>Calamina 0.22 Pre pintada</t>
   </si>
   <si>
-    <t>Alambres</t>
-  </si>
-  <si>
-    <t>Alambre N° 16</t>
-  </si>
-  <si>
-    <t>Generico</t>
-  </si>
-  <si>
-    <t>Alambre N° 08</t>
-  </si>
-  <si>
     <t>Clavo P/MAD. 2"</t>
   </si>
   <si>
-    <t>Clavo P/MAD. 21/2"</t>
+    <t>Clavo P/MAD. 2 1/2"</t>
   </si>
   <si>
     <t>Clavo P/MAD. 3"</t>
   </si>
   <si>
-    <t>Clavo P/MAD. 31/2"</t>
+    <t>Clavo P/MAD. 3 1/2"</t>
   </si>
   <si>
     <t>Clavo P/MAD. 4"</t>
@@ -505,7 +445,7 @@
     <t>Clavo P/MAD. 1"</t>
   </si>
   <si>
-    <t>Clavo P/MAD. 11/2"</t>
+    <t>Clavo P/MAD. 1 1/2"</t>
   </si>
   <si>
     <t>Clavo P/MAD. 6</t>
@@ -538,79 +478,34 @@
     <t>Tubo de agua 1 SP</t>
   </si>
   <si>
-    <t>Ladrillo KK 18H</t>
+    <t>Ladrillo KK 18</t>
   </si>
   <si>
     <t>Fortes</t>
   </si>
   <si>
-    <t>Fierro Sider barra 1/4</t>
-  </si>
-  <si>
-    <t>Fierro 8mm</t>
-  </si>
-  <si>
-    <t>Fierro 6mm</t>
-  </si>
-  <si>
-    <t>Fierro 3/8</t>
-  </si>
-  <si>
-    <t>Fierro 12mm</t>
-  </si>
-  <si>
     <t>Eurotubo</t>
   </si>
   <si>
-    <t>Tubo de luz 3/4</t>
-  </si>
-  <si>
-    <t>Ladrillo KK18</t>
-  </si>
-  <si>
     <t>Lark</t>
   </si>
   <si>
-    <t>Ladrillo techo 15</t>
-  </si>
-  <si>
     <t>Rapimix Concreto Seco</t>
   </si>
   <si>
-    <t>Fierro Sider barra 12 mm</t>
-  </si>
-  <si>
-    <t>Ladrillo techo 12</t>
-  </si>
-  <si>
     <t>Ladrillo techo 8</t>
   </si>
   <si>
-    <t>Tubo de agua 1/2</t>
-  </si>
-  <si>
-    <t>tubo de desagüe 4</t>
-  </si>
-  <si>
     <t>Ladrillo pandereta</t>
   </si>
   <si>
-    <t>EUROTUBO</t>
-  </si>
-  <si>
-    <t>Ladrillo Techo 15</t>
-  </si>
-  <si>
-    <t>PEGAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BLANCO FLEXIBLE</t>
-  </si>
-  <si>
-    <t>MOCHICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRIS</t>
+    <t>Pegamento</t>
+  </si>
+  <si>
+    <t>Blanco flexible</t>
+  </si>
+  <si>
+    <t>Gris</t>
   </si>
 </sst>
 </file>
@@ -689,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -716,31 +611,40 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3259,7 +3163,7 @@
     <col customWidth="1" min="1" max="1" width="53.71"/>
     <col customWidth="1" min="2" max="2" width="14.57"/>
     <col customWidth="1" min="3" max="3" width="27.14"/>
-    <col customWidth="1" min="4" max="4" width="17.29"/>
+    <col customWidth="1" min="4" max="4" width="17.86"/>
     <col customWidth="1" min="5" max="5" width="24.14"/>
     <col customWidth="1" min="6" max="26" width="10.71"/>
   </cols>
@@ -3268,616 +3172,628 @@
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" hidden="1" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>33.2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>36.0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" hidden="1" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>35.4</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" hidden="1" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>33.0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="13">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+      <c r="E6" s="14">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" hidden="1" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>36.5</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" hidden="1" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>21.8</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" hidden="1" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" hidden="1" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="16">
         <v>8.8</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>17.5</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>15.8</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>32.8</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>26.5</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" hidden="1" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+      <c r="D21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13">
+      <c r="B22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13">
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13">
+      <c r="B24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>33.2</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>35.7</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>35.2</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>33.2</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="E29" s="16">
         <v>56.86</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="16">
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="16">
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="B32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="16">
         <v>36.76</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="B33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="16">
         <v>14.71</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="B34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="16">
         <v>83.62</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="B35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="14">
+      <c r="D35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="16">
         <v>32.8</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" hidden="1" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="13">
         <v>18.9</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" hidden="1" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="B37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="13">
         <v>2.3</v>
       </c>
     </row>
@@ -3885,14 +3801,14 @@
       <c r="A38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="14">
+      <c r="B38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="13">
         <v>4.5</v>
       </c>
     </row>
@@ -3900,14 +3816,14 @@
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="14">
+      <c r="B39" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="13">
         <v>9.0</v>
       </c>
     </row>
@@ -3915,14 +3831,14 @@
       <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="14">
+      <c r="B40" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="13">
         <v>12.0</v>
       </c>
     </row>
@@ -3930,2482 +3846,2434 @@
       <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="14">
+      <c r="B41" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="13">
         <v>25.0</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" hidden="1" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="B42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="13">
         <v>83.0</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" hidden="1" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="B43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="13">
         <v>65.0</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" hidden="1" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="B44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="13">
         <v>14.0</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" hidden="1" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="14">
+      <c r="B45" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="13">
         <v>19.5</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" hidden="1" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="B46" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="13">
         <v>22.0</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="B47" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="13">
         <v>27.0</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" hidden="1" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="14">
+      <c r="B48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="16">
         <v>8.3</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" hidden="1" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="B49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="16">
         <v>20.08</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" hidden="1" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="B50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="16">
         <v>36.0</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" hidden="1" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="B51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="16">
         <v>55.68</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" hidden="1" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="B52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="16">
         <v>81.88</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" hidden="1" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="14">
+      <c r="B53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="16">
         <v>14.4</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" hidden="1" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="B54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="16">
         <v>32.12</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="B55" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="13">
         <v>18.0</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" hidden="1" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="14">
+      <c r="B56" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="13">
         <v>21.0</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" hidden="1" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="14">
+      <c r="B57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="16">
         <v>8.0</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" hidden="1" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="14">
+      <c r="B58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="16">
         <v>18.56</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" hidden="1" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="14">
+      <c r="B59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="16">
         <v>33.27</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" hidden="1" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="B60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="16">
         <v>51.46</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" hidden="1" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="14">
+      <c r="B61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="16">
         <v>75.68</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" hidden="1" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="14">
+      <c r="B62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="16">
         <v>13.31</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" hidden="1" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="14">
+      <c r="B63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="16">
         <v>29.69</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" hidden="1" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="14">
+      <c r="B64" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="13">
         <v>480.0</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" ht="14.25" hidden="1" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="14">
+      <c r="B65" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="13">
         <v>580.0</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" hidden="1" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <v>32.5</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" hidden="1" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>33.3</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" hidden="1" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <v>35.4</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" hidden="1" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>33.3</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="13">
+      <c r="C70" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="14">
         <v>56.05</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="13">
+      <c r="C71" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="14">
         <v>20.21</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="13">
+      <c r="C72" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="14">
         <v>36.24</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="13">
+      <c r="C73" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="14">
         <v>8.15</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="13">
+      <c r="C74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="14">
         <v>14.6</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" hidden="1" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="14">
+      <c r="C75" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="16">
         <v>32.89</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" hidden="1" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="13">
+      <c r="C76" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="14">
         <v>144.96</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" hidden="1" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="13">
+      <c r="C77" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="14">
         <v>55.63</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="13">
+      <c r="C78" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="14">
         <v>20.06</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E79" s="13">
+      <c r="C79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" s="14">
         <v>35.97</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="13">
+      <c r="C80" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="14">
         <v>8.09</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="13">
+      <c r="C81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="14">
         <v>14.39</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" hidden="1" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="13">
+      <c r="C82" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="14">
         <v>32.09</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" hidden="1" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="13">
+      <c r="C83" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="14">
         <v>143.87</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" hidden="1" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" s="13">
+      <c r="C84" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="14">
         <v>53.12</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" hidden="1" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="13">
+      <c r="C85" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="14">
         <v>19.16</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" hidden="1" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="13">
+      <c r="C86" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" s="14">
         <v>34.35</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" hidden="1" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="13">
+      <c r="C87" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="14">
         <v>7.72</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" hidden="1" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="13">
+      <c r="C88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="14">
         <v>13.14</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" hidden="1" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="14">
+      <c r="C89" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="16">
         <v>30.91</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="13">
+      <c r="C90" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="14">
         <v>137.39</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" hidden="1" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="B91" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13">
         <v>13.24</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" hidden="1" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="B92" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="13">
         <v>13.24</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" hidden="1" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E93" s="14">
+      <c r="B93" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="13">
         <v>18.06</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" hidden="1" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E94" s="14">
+      <c r="B94" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="13">
         <v>18.94</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" hidden="1" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E95" s="14">
+      <c r="B95" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="13">
         <v>23.19</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" hidden="1" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" s="14">
+      <c r="B96" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="13">
         <v>23.23</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" hidden="1" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" s="13">
+      <c r="B97" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="12">
         <v>3.78</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" hidden="1" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E98" s="13">
+      <c r="B98" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E98" s="12">
         <v>3.78</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" hidden="1" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" s="13">
+      <c r="B99" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="12">
         <v>3.86</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" hidden="1" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E100" s="13">
+      <c r="B100" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="12">
         <v>3.86</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" hidden="1" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E101" s="13">
+      <c r="B101" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="12">
         <v>3.86</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" hidden="1" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="14">
+      <c r="B102" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="13">
         <v>3.89</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" hidden="1" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E103" s="14">
+      <c r="B103" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="13">
         <v>3.89</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" hidden="1" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="14">
+      <c r="B104" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E104" s="13">
         <v>5.63</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" hidden="1" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E105" s="14">
+      <c r="B105" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="13">
         <v>5.48</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" hidden="1" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E106" s="14">
+      <c r="B106" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E106" s="13">
         <v>5.09</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" hidden="1" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="14">
+      <c r="B107" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" s="13">
         <v>6.1</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" hidden="1" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="14">
+      <c r="B108" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" s="13">
         <v>6.1</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" hidden="1" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E109" s="14">
+      <c r="B109" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="13">
         <v>5.83</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" hidden="1" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E110" s="13">
+      <c r="B110" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" s="12">
         <v>9.5</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" hidden="1" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E111" s="13">
+      <c r="B111" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" s="12">
         <v>10.4</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" hidden="1" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="13">
         <v>33.2</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" hidden="1" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="13">
         <v>35.6</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" hidden="1" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E114" s="14">
+      <c r="C114" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="16">
         <v>58.0</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" hidden="1" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E115" s="14">
+      <c r="C115" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="16">
         <v>21.0</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" hidden="1" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E116" s="14">
+      <c r="C116" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="16">
         <v>38.0</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" hidden="1" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E117" s="14">
+      <c r="C117" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" s="16">
         <v>9.0</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" hidden="1" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E118" s="14">
+      <c r="C118" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" s="16">
         <v>17.0</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" hidden="1" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="12" t="s">
+      <c r="C119" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="13">
         <v>13.0</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" hidden="1" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D120" s="12" t="s">
+      <c r="C120" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="13">
         <v>18.0</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" hidden="1" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D121" s="12" t="s">
+      <c r="C121" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121" s="13">
         <v>23.0</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" hidden="1" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E122" s="14">
+      <c r="B122" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="13">
         <v>660.0</v>
       </c>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" hidden="1" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123" s="13">
         <v>30.5</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" hidden="1" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="13">
         <v>33.5</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" hidden="1" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125" s="13">
         <v>32.5</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" hidden="1" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="13">
         <v>29.0</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" hidden="1" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E127" s="14">
+      <c r="C127" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" s="16">
         <v>56.5</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" hidden="1" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E128" s="14">
+      <c r="C128" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" s="16">
         <v>36.5</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" hidden="1" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E129" s="14">
+      <c r="D129" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E129" s="16">
         <v>33.5</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" hidden="1" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E130" s="14">
+      <c r="C130" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130" s="16">
         <v>15.0</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" hidden="1" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E131" s="14">
+      <c r="C131" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131" s="16">
         <v>8.5</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" hidden="1" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E132" s="14">
+      <c r="C132" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" s="16">
         <v>21.0</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" hidden="1" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E133" s="14">
+        <v>92</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E133" s="16">
         <v>32.5</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" hidden="1" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D134" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E134" s="14">
+      <c r="D134" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" s="13">
         <v>10.0</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" hidden="1" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="19" t="s">
+      <c r="B135" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E135" s="14">
+      <c r="C135" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" s="13">
         <v>2.8</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" hidden="1" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E136" s="14">
+      <c r="B136" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="13">
         <v>1.05</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" hidden="1" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E137" s="14">
+      <c r="B137" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" s="13">
         <v>2.9</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" hidden="1" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E138" s="14">
+      <c r="B138" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" hidden="1" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="19" t="s">
-        <v>165</v>
+      <c r="B139" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E139" s="14">
+        <v>148</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" s="13">
         <v>9.2</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" hidden="1" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="19" t="s">
-        <v>165</v>
+      <c r="B140" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E140" s="14">
+        <v>146</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" s="13">
         <v>8.5</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" hidden="1" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E141" s="14">
+      <c r="B141" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="13">
         <v>11.0</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" hidden="1" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="D142" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E142" s="14">
+      <c r="E142" s="13">
         <v>30.0</v>
       </c>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" hidden="1" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E143" s="14">
+      <c r="E143" s="13">
         <v>33.0</v>
       </c>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" hidden="1" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="14">
+      <c r="E144" s="13">
         <v>32.0</v>
       </c>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" hidden="1" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E145" s="13">
+      <c r="E145" s="12">
         <v>28.2</v>
       </c>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" hidden="1" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E146" s="14">
+      <c r="C146" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E146" s="16">
         <v>57.5</v>
       </c>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" hidden="1" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E147" s="14">
+      <c r="C147" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" s="16">
         <v>37.2</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" hidden="1" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D148" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E148" s="14">
+      <c r="D148" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E148" s="16">
         <v>8.5</v>
       </c>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" hidden="1" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E149" s="14">
+        <v>92</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" s="16">
         <v>33.3</v>
       </c>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" hidden="1" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B150" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D150" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E150" s="14">
+      <c r="D150" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E150" s="13">
         <v>10.0</v>
       </c>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" hidden="1" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B151" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E151" s="14">
+      <c r="C151" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E151" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" hidden="1" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E152" s="14">
+      <c r="B152" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="13">
         <v>1.02</v>
       </c>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" hidden="1" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E153" s="14">
+      <c r="B153" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="13">
         <v>2.9</v>
       </c>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" hidden="1" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E154" s="14">
+      <c r="B154" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E154" s="13">
         <v>2.7</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" hidden="1" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E155" s="14">
+      <c r="B155" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E155" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" hidden="1" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>165</v>
+      <c r="B156" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E156" s="14">
+        <v>148</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E156" s="13">
         <v>8.9</v>
       </c>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" hidden="1" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>165</v>
+      <c r="B157" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E157" s="14">
+        <v>146</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157" s="13">
         <v>8.2</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" hidden="1" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E158" s="14">
+      <c r="B158" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" s="13">
         <v>11.0</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" hidden="1" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="13">
         <v>29.9</v>
       </c>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" hidden="1" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D160" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E160" s="14">
+      <c r="E160" s="13">
         <v>33.5</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" hidden="1" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D161" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161" s="13">
         <v>32.5</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" hidden="1" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="C162" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E162" s="14">
+      <c r="E162" s="13">
         <v>28.4</v>
       </c>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" hidden="1" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E163" s="14">
+      <c r="C163" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E163" s="16">
         <v>56.5</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" hidden="1" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C164" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E164" s="14">
+      <c r="C164" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E164" s="16">
         <v>36.6</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" hidden="1" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D165" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E165" s="14">
+      <c r="D165" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E165" s="16">
         <v>8.3</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" hidden="1" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E166" s="14">
+      <c r="D166" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E166" s="13">
         <v>8.0</v>
       </c>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" hidden="1" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C167" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E167" s="14">
+      <c r="C167" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E167" s="13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C168" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E168" s="14">
+      <c r="C168" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E168" s="13">
         <v>16.5</v>
       </c>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C169" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E169" s="14">
+      <c r="C169" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E169" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D170" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E170" s="14">
+      <c r="B170" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E170" s="13">
         <v>1.05</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E171" s="14">
+      <c r="B171" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E171" s="13">
         <v>2.85</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E172" s="14">
+      <c r="B172" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E172" s="13">
         <v>2.55</v>
       </c>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B173" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E173" s="14">
+      <c r="B173" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E173" s="13">
         <v>0.75</v>
       </c>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>165</v>
+      <c r="B174" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E174" s="14">
+        <v>148</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="13">
         <v>9.5</v>
       </c>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="D175" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="13">
         <v>30.5</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C176" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D176" s="12" t="s">
+      <c r="D176" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="13">
         <v>33.7</v>
       </c>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="D177" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="13">
         <v>32.7</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D178" s="12" t="s">
+      <c r="D178" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="13">
         <v>29.0</v>
       </c>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E179" s="14">
+      <c r="C179" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E179" s="16">
         <v>57.3</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D180" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E180" s="14">
+      <c r="D180" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E180" s="13">
         <v>13.5</v>
       </c>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B181" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E181" s="14">
+      <c r="B181" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E181" s="13">
         <v>2.9</v>
       </c>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E182" s="14">
+      <c r="B182" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="13">
         <v>28.0</v>
       </c>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B183" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E183" s="14">
+      <c r="B183" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" s="13">
         <v>15.0</v>
       </c>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E184" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E185" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E186" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
     <row r="187" ht="14.25" customHeight="1"/>
     <row r="188" ht="14.25" customHeight="1"/>
     <row r="189" ht="14.25" customHeight="1"/>
@@ -7219,11 +7087,14 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
-    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$B$1:$B$1002"/>
+  <autoFilter ref="$A$1:$E$183">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Yeso"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="163">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -307,13 +307,13 @@
     <t>Yeso</t>
   </si>
   <si>
-    <t>YESO 8</t>
-  </si>
-  <si>
-    <t>YESO 18</t>
-  </si>
-  <si>
-    <t>YESO 28</t>
+    <t>Yeso 8</t>
+  </si>
+  <si>
+    <t>Yeso 18</t>
+  </si>
+  <si>
+    <t>Yeso 28</t>
   </si>
   <si>
     <t>Calaminon</t>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Blanco flexible</t>
+  </si>
+  <si>
+    <t>Mochika</t>
   </si>
   <si>
     <t>Gris</t>
@@ -3185,7 +3188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="14.25" hidden="1" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>33.2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" hidden="1" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>36.0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" hidden="1" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="5" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>33.0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="8" ht="14.25" hidden="1" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="9" ht="14.25" hidden="1" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>8.8</v>
       </c>
     </row>
-    <row r="11" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="12" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="13" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>32.8</v>
       </c>
     </row>
-    <row r="14" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="16" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" ht="14.25" hidden="1" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" ht="14.25" hidden="1" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="19" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="20" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="21" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="22" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="23" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="24" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="25" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>33.2</v>
       </c>
     </row>
-    <row r="26" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>35.7</v>
       </c>
     </row>
-    <row r="27" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>35.2</v>
       </c>
     </row>
-    <row r="28" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>33.2</v>
       </c>
     </row>
-    <row r="29" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>56.86</v>
       </c>
     </row>
-    <row r="30" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="33" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>14</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="34" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>83.62</v>
       </c>
     </row>
-    <row r="35" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>32.8</v>
       </c>
     </row>
-    <row r="36" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>18.9</v>
       </c>
     </row>
-    <row r="37" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
@@ -3804,7 +3807,7 @@
       <c r="B38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="20"/>
@@ -3819,7 +3822,7 @@
       <c r="B39" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="20"/>
@@ -3834,7 +3837,7 @@
       <c r="B40" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="20"/>
@@ -3857,7 +3860,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="42" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>83.0</v>
       </c>
     </row>
-    <row r="43" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>65.0</v>
       </c>
     </row>
-    <row r="44" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="45" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>14</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="46" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>22.0</v>
       </c>
     </row>
-    <row r="47" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
@@ -3959,7 +3962,7 @@
         <v>27.0</v>
       </c>
     </row>
-    <row r="48" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>8.3</v>
       </c>
     </row>
-    <row r="49" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>20.08</v>
       </c>
     </row>
-    <row r="50" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>14</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>36.0</v>
       </c>
     </row>
-    <row r="51" ht="14.25" hidden="1" customHeight="1">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>14</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>55.68</v>
       </c>
     </row>
-    <row r="52" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="53" ht="14.25" hidden="1" customHeight="1">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>14</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="54" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>32.12</v>
       </c>
     </row>
-    <row r="55" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="56" ht="14.25" hidden="1" customHeight="1">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>21.0</v>
       </c>
     </row>
-    <row r="57" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>8.0</v>
       </c>
     </row>
-    <row r="58" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>14</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>18.56</v>
       </c>
     </row>
-    <row r="59" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>33.27</v>
       </c>
     </row>
-    <row r="60" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="61" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>14</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>75.68</v>
       </c>
     </row>
-    <row r="62" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="63" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="64" ht="14.25" hidden="1" customHeight="1">
+    <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>480.0</v>
       </c>
     </row>
-    <row r="65" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>580.0</v>
       </c>
     </row>
-    <row r="66" ht="14.25" hidden="1" customHeight="1">
+    <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>16</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="67" ht="14.25" hidden="1" customHeight="1">
+    <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>16</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="68" ht="14.25" hidden="1" customHeight="1">
+    <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>16</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="69" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>16</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="70" ht="14.25" hidden="1" customHeight="1">
+    <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>56.05</v>
       </c>
     </row>
-    <row r="71" ht="14.25" hidden="1" customHeight="1">
+    <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>16</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="72" ht="14.25" hidden="1" customHeight="1">
+    <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>16</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>36.24</v>
       </c>
     </row>
-    <row r="73" ht="14.25" hidden="1" customHeight="1">
+    <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>16</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="74" ht="14.25" hidden="1" customHeight="1">
+    <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>16</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="75" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>16</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="76" ht="14.25" hidden="1" customHeight="1">
+    <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>16</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>144.96</v>
       </c>
     </row>
-    <row r="77" ht="14.25" hidden="1" customHeight="1">
+    <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="78" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>16</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>20.06</v>
       </c>
     </row>
-    <row r="79" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="80" ht="14.25" hidden="1" customHeight="1">
+    <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="81" ht="14.25" hidden="1" customHeight="1">
+    <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="82" ht="14.25" hidden="1" customHeight="1">
+    <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>32.09</v>
       </c>
     </row>
-    <row r="83" ht="14.25" hidden="1" customHeight="1">
+    <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>143.87</v>
       </c>
     </row>
-    <row r="84" ht="14.25" hidden="1" customHeight="1">
+    <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>16</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="85" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="86" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>34.35</v>
       </c>
     </row>
-    <row r="87" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="88" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="89" ht="14.25" hidden="1" customHeight="1">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="90" ht="14.25" hidden="1" customHeight="1">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>137.39</v>
       </c>
     </row>
-    <row r="91" ht="14.25" hidden="1" customHeight="1">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>16</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="92" ht="14.25" hidden="1" customHeight="1">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>16</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="93" ht="14.25" hidden="1" customHeight="1">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>16</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>18.06</v>
       </c>
     </row>
-    <row r="94" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>16</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>18.94</v>
       </c>
     </row>
-    <row r="95" ht="14.25" hidden="1" customHeight="1">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>16</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>23.19</v>
       </c>
     </row>
-    <row r="96" ht="14.25" hidden="1" customHeight="1">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>16</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="97" ht="14.25" hidden="1" customHeight="1">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>16</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="98" ht="14.25" hidden="1" customHeight="1">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>16</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="99" ht="14.25" hidden="1" customHeight="1">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>16</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="100" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>16</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="101" ht="14.25" hidden="1" customHeight="1">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>16</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="102" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>16</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="103" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="104" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>16</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="105" ht="14.25" hidden="1" customHeight="1">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>16</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="106" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>16</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="107" ht="14.25" hidden="1" customHeight="1">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>16</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="108" ht="14.25" hidden="1" customHeight="1">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>16</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="109" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>16</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="110" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="111" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="112" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>19</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>33.2</v>
       </c>
     </row>
-    <row r="113" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>19</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="114" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>19</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>58.0</v>
       </c>
     </row>
-    <row r="115" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>21.0</v>
       </c>
     </row>
-    <row r="116" ht="14.25" hidden="1" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>19</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>38.0</v>
       </c>
     </row>
-    <row r="117" ht="14.25" hidden="1" customHeight="1">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>19</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>9.0</v>
       </c>
     </row>
-    <row r="118" ht="14.25" hidden="1" customHeight="1">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>19</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>17.0</v>
       </c>
     </row>
-    <row r="119" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>19</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>13.0</v>
       </c>
     </row>
-    <row r="120" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>19</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="121" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>19</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>23.0</v>
       </c>
     </row>
-    <row r="122" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>660.0</v>
       </c>
     </row>
-    <row r="123" ht="14.25" hidden="1" customHeight="1">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="124" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="125" ht="14.25" hidden="1" customHeight="1">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>2</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="126" ht="14.25" hidden="1" customHeight="1">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>2</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>29.0</v>
       </c>
     </row>
-    <row r="127" ht="14.25" hidden="1" customHeight="1">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>2</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="128" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>2</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="129" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="130" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>15.0</v>
       </c>
     </row>
-    <row r="131" ht="14.25" hidden="1" customHeight="1">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="132" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>21.0</v>
       </c>
     </row>
-    <row r="133" ht="14.25" hidden="1" customHeight="1">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="134" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="135" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="136" ht="14.25" hidden="1" customHeight="1">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>2</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="137" ht="14.25" hidden="1" customHeight="1">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>2</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="138" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>2</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="139" ht="14.25" hidden="1" customHeight="1">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>9.2</v>
       </c>
     </row>
-    <row r="140" ht="14.25" hidden="1" customHeight="1">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>2</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="141" ht="14.25" hidden="1" customHeight="1">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>11.0</v>
       </c>
     </row>
-    <row r="142" ht="14.25" hidden="1" customHeight="1">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>4</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>30.0</v>
       </c>
     </row>
-    <row r="143" ht="14.25" hidden="1" customHeight="1">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>4</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>33.0</v>
       </c>
     </row>
-    <row r="144" ht="14.25" hidden="1" customHeight="1">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>32.0</v>
       </c>
     </row>
-    <row r="145" ht="14.25" hidden="1" customHeight="1">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>4</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="146" ht="14.25" hidden="1" customHeight="1">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="147" ht="14.25" hidden="1" customHeight="1">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>37.2</v>
       </c>
     </row>
-    <row r="148" ht="14.25" hidden="1" customHeight="1">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>4</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="149" ht="14.25" hidden="1" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>4</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="150" ht="14.25" hidden="1" customHeight="1">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="151" ht="14.25" hidden="1" customHeight="1">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>4</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="152" ht="14.25" hidden="1" customHeight="1">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="153" ht="14.25" hidden="1" customHeight="1">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>4</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="154" ht="14.25" hidden="1" customHeight="1">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>4</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="155" ht="14.25" hidden="1" customHeight="1">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>4</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="156" ht="14.25" hidden="1" customHeight="1">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>4</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="157" ht="14.25" hidden="1" customHeight="1">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>4</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>8.2</v>
       </c>
     </row>
-    <row r="158" ht="14.25" hidden="1" customHeight="1">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>4</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>11.0</v>
       </c>
     </row>
-    <row r="159" ht="14.25" hidden="1" customHeight="1">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="160" ht="14.25" hidden="1" customHeight="1">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>6</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="161" ht="14.25" hidden="1" customHeight="1">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>6</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="162" ht="14.25" hidden="1" customHeight="1">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>6</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="163" ht="14.25" hidden="1" customHeight="1">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="164" ht="14.25" hidden="1" customHeight="1">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="165" ht="14.25" hidden="1" customHeight="1">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>6</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>8.3</v>
       </c>
     </row>
-    <row r="166" ht="14.25" hidden="1" customHeight="1">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>6</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>8.0</v>
       </c>
     </row>
-    <row r="167" ht="14.25" hidden="1" customHeight="1">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>6</v>
       </c>
@@ -5999,7 +6002,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="168" ht="14.25" hidden="1" customHeight="1">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>6</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="169" ht="14.25" hidden="1" customHeight="1">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>6</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="170" ht="14.25" hidden="1" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>6</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="171" ht="14.25" hidden="1" customHeight="1">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>6</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="172" ht="14.25" hidden="1" customHeight="1">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>2.55</v>
       </c>
     </row>
-    <row r="173" ht="14.25" hidden="1" customHeight="1">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>6</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="174" ht="14.25" hidden="1" customHeight="1">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>6</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="175" ht="14.25" hidden="1" customHeight="1">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>8</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="176" ht="14.25" hidden="1" customHeight="1">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="7" t="s">
         <v>8</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>33.7</v>
       </c>
     </row>
-    <row r="177" ht="14.25" hidden="1" customHeight="1">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>8</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>32.7</v>
       </c>
     </row>
-    <row r="178" ht="14.25" hidden="1" customHeight="1">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>29.0</v>
       </c>
     </row>
-    <row r="179" ht="14.25" hidden="1" customHeight="1">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>8</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="180" ht="14.25" hidden="1" customHeight="1">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>8</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="181" ht="14.25" hidden="1" customHeight="1">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -6237,7 +6240,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="182" ht="14.25" hidden="1" customHeight="1">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
@@ -6248,13 +6251,13 @@
         <v>160</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="E182" s="13">
         <v>28.0</v>
       </c>
     </row>
-    <row r="183" ht="14.25" hidden="1" customHeight="1">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
@@ -6262,10 +6265,10 @@
         <v>159</v>
       </c>
       <c r="C183" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D183" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="E183" s="13">
         <v>15.0</v>
@@ -7088,13 +7091,7 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$E$183">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Yeso"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$E$183"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -4282,7 +4282,7 @@
         <v>52</v>
       </c>
       <c r="E66" s="12">
-        <v>32.5</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -3270,7 +3270,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="14">
-        <v>56.5</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -4298,8 +4298,8 @@
       <c r="D67" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="13">
-        <v>33.3</v>
+      <c r="E67" s="12">
+        <v>36.0</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -4332,8 +4332,8 @@
       <c r="D69" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="13">
-        <v>33.3</v>
+      <c r="E69" s="12">
+        <v>0.0</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="productos" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$A$1:$E$183</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">productos!$A$1:$E$210</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="166">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -85,6 +85,18 @@
     <t>-5.21581486427355,-80.6535201519727</t>
   </si>
   <si>
+    <t>FERRETERIA EL IMAN (DON BETO)</t>
+  </si>
+  <si>
+    <t>-5.16116802342253,-80.6695506952022</t>
+  </si>
+  <si>
+    <t>FERRETERIA LOS ANGELES</t>
+  </si>
+  <si>
+    <t>-5.15805244155937,-80.6567052521148</t>
+  </si>
+  <si>
     <t>Nombre del Asociado:</t>
   </si>
   <si>
@@ -157,6 +169,21 @@
     <t>Modesta Caldeón</t>
   </si>
   <si>
+    <t>FERRETERIA DON BETO</t>
+  </si>
+  <si>
+    <t>AH LAS DALIAS II ETAPA MZ U2 LT 1, VEINTISEIS DE OCTUBRE, PIURA</t>
+  </si>
+  <si>
+    <t>EDIBERTO OJEDA MARTINEZ</t>
+  </si>
+  <si>
+    <t>AAHH LOS ANGELES MZ A LOTE 37</t>
+  </si>
+  <si>
+    <t>MIKY YANAYACO REYES</t>
+  </si>
+  <si>
     <t>Ferreteria</t>
   </si>
   <si>
@@ -196,22 +223,22 @@
     <t>Fierro</t>
   </si>
   <si>
-    <t>Fierro A.A barra 5/8</t>
+    <t>Fierro barra 5/8</t>
   </si>
   <si>
     <t>Aceros Arequipa</t>
   </si>
   <si>
-    <t>Fierro A.A barra 1/2</t>
-  </si>
-  <si>
-    <t>Fierro A.A barra 3/8</t>
-  </si>
-  <si>
-    <t>Fierro A.A barra 8mm</t>
-  </si>
-  <si>
-    <t>Fierro A.A barra 6mm</t>
+    <t>Fierro barra 1/2</t>
+  </si>
+  <si>
+    <t>Fierro barra 3/8</t>
+  </si>
+  <si>
+    <t>Fierro barra 8mm</t>
+  </si>
+  <si>
+    <t>Fierro barra 6mm</t>
   </si>
   <si>
     <t>Tubería</t>
@@ -277,28 +304,16 @@
     <t>Clavo 4"</t>
   </si>
   <si>
-    <t>Fierro Sider barra 5/8</t>
-  </si>
-  <si>
     <t>Sider</t>
   </si>
   <si>
-    <t>Fierro Sider barra 1/4</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 3/8</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 1/2</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 8mm</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 3/4</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 12mm</t>
+    <t>Fierro barra 1/4</t>
+  </si>
+  <si>
+    <t>Fierro barra 3/4</t>
+  </si>
+  <si>
+    <t>Fierro barra 12mm</t>
   </si>
   <si>
     <t>Ital</t>
@@ -349,15 +364,6 @@
     <t>Tortuga</t>
   </si>
   <si>
-    <t>Fierro A.A barra 1/4</t>
-  </si>
-  <si>
-    <t>Fierro A.A barra 3/4</t>
-  </si>
-  <si>
-    <t>Fierro A.A barra 12mm</t>
-  </si>
-  <si>
     <t>Thiner</t>
   </si>
   <si>
@@ -370,34 +376,34 @@
     <t>Bicolor 305</t>
   </si>
   <si>
-    <t>Fierro Miromina barra 1/4</t>
+    <t>Fierro  barra 1/4</t>
   </si>
   <si>
     <t xml:space="preserve">Miromina </t>
   </si>
   <si>
-    <t>Fierro Miromina barra 3/8</t>
-  </si>
-  <si>
-    <t>Fierro Miromina barra 1/2</t>
-  </si>
-  <si>
-    <t>Fierro Miromina barra 5/8</t>
-  </si>
-  <si>
-    <t>Fierro Miromina barra 3/4</t>
-  </si>
-  <si>
-    <t>Fierro Miromina barra 8mm</t>
-  </si>
-  <si>
-    <t>Fierro Miromina barra 12mm</t>
+    <t>Fierro  barra 3/8</t>
+  </si>
+  <si>
+    <t>Fierro  barra 1/2</t>
+  </si>
+  <si>
+    <t>Fierro  barra 5/8</t>
+  </si>
+  <si>
+    <t>Fierro  barra 3/4</t>
+  </si>
+  <si>
+    <t>Fierro  barra 8mm</t>
+  </si>
+  <si>
+    <t>Fierro  barra 12mm</t>
   </si>
   <si>
     <t>Tanques</t>
   </si>
   <si>
-    <t>Tanque Eternit  1100 ltros</t>
+    <t>Tanque Eternit 1100 ltros</t>
   </si>
   <si>
     <t>Eternit</t>
@@ -409,10 +415,7 @@
     <t xml:space="preserve">Rotoplas </t>
   </si>
   <si>
-    <t>Fierro Sider barra 6mm</t>
-  </si>
-  <si>
-    <t>Fierro Sider barra 1"</t>
+    <t>Fierro barra 1"</t>
   </si>
   <si>
     <t>Calamina 0.18</t>
@@ -509,6 +512,12 @@
   </si>
   <si>
     <t>Gris</t>
+  </si>
+  <si>
+    <t>Tuboplast</t>
+  </si>
+  <si>
+    <t>Ladrillo king kong</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -551,6 +560,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -587,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -602,6 +616,9 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -611,8 +628,8 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -622,10 +639,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -633,14 +655,8 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -648,6 +664,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,7 +896,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="53.71"/>
-    <col customWidth="1" min="2" max="2" width="34.14"/>
+    <col customWidth="1" min="2" max="2" width="35.71"/>
     <col customWidth="1" min="3" max="26" width="10.71"/>
   </cols>
   <sheetData>
@@ -982,8 +1004,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1997,165 +2033,197 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9.61957234E8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9.61957234E8</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>9.63321515E8</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9">
+        <v>9.4061623E7</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.82687414E8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9.81257242E8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9.98391439E8</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9.78001402E8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9.78001402E8</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9.9467051E8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9.9467051E8</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9.42190698E8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9.42190698E8</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7">
-        <v>9.61957234E8</v>
-      </c>
-      <c r="F2" s="7">
-        <v>9.61957234E8</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>9.63321515E8</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="8">
-        <v>9.4061623E7</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9.82687414E8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7">
-        <v>9.81257242E8</v>
-      </c>
-      <c r="F6" s="7">
-        <v>9.98391439E8</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7">
-        <v>9.78001402E8</v>
-      </c>
-      <c r="F7" s="7">
-        <v>9.78001402E8</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7">
-        <v>9.9467051E8</v>
-      </c>
-      <c r="F8" s="7">
-        <v>9.9467051E8</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9.57851642E8</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
@@ -3159,3148 +3227,3520 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="53.71"/>
     <col customWidth="1" min="2" max="2" width="14.57"/>
-    <col customWidth="1" min="3" max="3" width="27.14"/>
+    <col customWidth="1" min="3" max="3" width="36.14"/>
     <col customWidth="1" min="4" max="4" width="17.86"/>
     <col customWidth="1" min="5" max="5" width="24.14"/>
     <col customWidth="1" min="6" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>45</v>
+      <c r="A1" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="13">
         <v>33.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="14">
         <v>36.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="14">
         <v>35.4</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="14">
         <v>33.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="16">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="16">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="16">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="16">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="18">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="14">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="14">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="14">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="14">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="14">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="14">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="14">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="14">
+      <c r="C26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="14">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="14">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="13">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="18">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="18">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="18">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="18">
+        <v>36.76</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="18">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="18">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="18">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="14">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="14">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="14">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="14">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="14">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="14">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="14">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="14">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="14">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="14">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="14">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="18">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="18">
+        <v>20.08</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="18">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="18">
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="18">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="18">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="18">
+        <v>32.12</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="14">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="14">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="18">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="18">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="18">
+        <v>33.27</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="18">
+        <v>51.46</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="18">
+        <v>75.68</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="18">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="18">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="14">
+        <v>480.0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="14">
+        <v>580.0</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="13">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="13">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="14">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="16">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="16">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="16">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="16">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="16">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="18">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="16">
+        <v>144.96</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="16">
+        <v>55.63</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="16">
+        <v>20.06</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="16">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="16">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="16">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="16">
+        <v>32.09</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="16">
+        <v>143.87</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="16">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="16">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="16">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="16">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="16">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="18">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="16">
+        <v>137.39</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="14">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="14">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="14">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="14">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="14">
+        <v>23.19</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="14">
+        <v>23.23</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="13">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="13">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="13">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="13">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="13">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="14">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103" s="14">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="14">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="14">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" s="14">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E107" s="14">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E108" s="14">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="14">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="13">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="13">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" s="14">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" s="14">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="18">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="18">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="18">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="18">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E118" s="18">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119" s="14">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" s="14">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="14">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="14">
+        <v>660.0</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E123" s="14">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E124" s="14">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="14">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="14">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" s="18">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E128" s="18">
         <v>36.5</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E129" s="18">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E130" s="18">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="18">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132" s="18">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E133" s="18">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="14">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E136" s="14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E138" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" s="14">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140" s="14">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" s="14">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E142" s="14">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="14">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="C143" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D143" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" s="14">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="14">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C144" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D144" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="14">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="16">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C145" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E145" s="13">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E146" s="18">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E147" s="18">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E148" s="18">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E149" s="18">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" s="14">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E152" s="14">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E153" s="14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" s="14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="14">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="14">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="14">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E159" s="14">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" s="14">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="14">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D162" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="14">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="13">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C163" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E163" s="18">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E164" s="18">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" s="18">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E166" s="14">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E167" s="14">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E168" s="14">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E169" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E170" s="14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E171" s="14">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="A172" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E172" s="14">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="A174" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E174" s="14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="A175" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E175" s="14">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="A176" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E176" s="14">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="A177" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="E177" s="14">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="A178" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="14">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D179" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="18">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="A180" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E180" s="14">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="A181" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E181" s="14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="A182" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E182" s="14">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="A183" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E183" s="14">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="A184" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E184" s="14">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="A185" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E185" s="14">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="A186" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="14">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="A187" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="14">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="A188" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E188" s="14">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E189" s="14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="A190" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E190" s="14">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="A191" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="13">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C191" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E191" s="14">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="A192" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E192" s="14">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="A193" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E193" s="14">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="A194" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E194" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E195" s="14">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E196" s="14">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E197" s="14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="A198" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E198" s="26">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="B199" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E199" s="26">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="B200" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="E200" s="26">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="B201" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E201" s="26">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="B202" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E202" s="26">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="B203" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E203" s="26">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="B204" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="13">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="13">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="13">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="C204" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E204" s="26">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="B205" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="C205" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="13">
+      <c r="D205" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E205" s="26">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="B206" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E206" s="26">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="B207" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E207" s="26">
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="13">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="13">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="13">
-        <v>35.2</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="12">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="16">
-        <v>56.86</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="16">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="16">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="16">
-        <v>36.76</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="16">
-        <v>14.71</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="16">
-        <v>83.62</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="16">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="13">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="13">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="13">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="13">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="13">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="13">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="13">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="13">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="13">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="13">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="13">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="13">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="16">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="16">
-        <v>20.08</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="16">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="16">
-        <v>55.68</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="16">
-        <v>81.88</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="16">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="16">
-        <v>32.12</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="13">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="13">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="16">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="16">
-        <v>18.56</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="16">
-        <v>33.27</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="16">
-        <v>51.46</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="16">
-        <v>75.68</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="16">
-        <v>13.31</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="16">
-        <v>29.69</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="13">
-        <v>480.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="13">
-        <v>580.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="12">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E67" s="12">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" s="13">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" s="14">
-        <v>56.05</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="14">
-        <v>20.21</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="14">
-        <v>36.24</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="14">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="14">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="16">
-        <v>32.89</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="14">
-        <v>144.96</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="14">
-        <v>55.63</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="14">
-        <v>20.06</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="14">
-        <v>35.97</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="14">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" s="14">
-        <v>14.39</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="14">
-        <v>32.09</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E83" s="14">
-        <v>143.87</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E84" s="14">
-        <v>53.12</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="14">
-        <v>19.16</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="14">
-        <v>34.35</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="14">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="14">
-        <v>13.14</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" s="16">
-        <v>30.91</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E90" s="14">
-        <v>137.39</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E91" s="13">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E92" s="13">
-        <v>13.24</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="13">
-        <v>18.06</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="13">
-        <v>18.94</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="13">
-        <v>23.19</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="13">
-        <v>23.23</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E97" s="12">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" s="12">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="12">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E100" s="12">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E101" s="12">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E102" s="13">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="13">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E104" s="13">
-        <v>5.63</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="13">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E106" s="13">
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E107" s="13">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E108" s="13">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E109" s="13">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="12">
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="E208" s="26">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="E209" s="26">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="E210" s="26">
         <v>9.5</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="12">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E112" s="13">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E113" s="13">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E114" s="16">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E115" s="16">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E116" s="16">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E117" s="16">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118" s="16">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E119" s="13">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E120" s="13">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E121" s="13">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E122" s="13">
-        <v>660.0</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E123" s="13">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E124" s="13">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E125" s="13">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="13">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E127" s="16">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E128" s="16">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E129" s="16">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E130" s="16">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E131" s="16">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E132" s="16">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E133" s="16">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E134" s="13">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E135" s="13">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136" s="13">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E137" s="13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E138" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E139" s="13">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D140" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E140" s="13">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E141" s="13">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E142" s="13">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E143" s="13">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E144" s="13">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E145" s="12">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E146" s="16">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E147" s="16">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E148" s="16">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E149" s="16">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E150" s="13">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E151" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E152" s="13">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E153" s="13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E154" s="13">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E155" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E156" s="13">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E157" s="13">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D158" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E158" s="13">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E159" s="13">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E160" s="13">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E161" s="13">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E162" s="13">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E163" s="16">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E164" s="16">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E165" s="16">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E166" s="13">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D167" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E167" s="13">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E168" s="13">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E169" s="13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E170" s="13">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E171" s="13">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E172" s="13">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E173" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D174" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E174" s="13">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E175" s="13">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E176" s="13">
-        <v>33.7</v>
-      </c>
-    </row>
-    <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E177" s="13">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E178" s="13">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E179" s="16">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E180" s="13">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E181" s="13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E182" s="13">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E183" s="13">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
     <row r="211" ht="14.25" customHeight="1"/>
     <row r="212" ht="14.25" customHeight="1"/>
     <row r="213" ht="14.25" customHeight="1"/>
@@ -7091,7 +7531,7 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$E$183"/>
+  <autoFilter ref="$A$1:$E$210"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="165">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Modesta Caldeón</t>
-  </si>
-  <si>
-    <t>FERRETERIA DON BETO</t>
   </si>
   <si>
     <t>AH LAS DALIAS II ETAPA MZ U2 LT 1, VEINTISEIS DE OCTUBRE, PIURA</t>
@@ -527,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -560,11 +557,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -601,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -664,12 +656,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2192,14 +2178,14 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8">
         <v>9.42190698E8</v>
@@ -2213,11 +2199,11 @@
         <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8">
         <v>9.57851642E8</v>
@@ -3244,19 +3230,19 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -3264,13 +3250,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E2" s="13">
         <v>33.2</v>
@@ -3281,13 +3267,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="14">
         <v>36.0</v>
@@ -3298,13 +3284,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="14">
         <v>35.4</v>
@@ -3315,13 +3301,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="14">
         <v>33.0</v>
@@ -3332,13 +3318,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="E6" s="16">
         <v>57.0</v>
@@ -3349,13 +3335,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="16">
         <v>36.8</v>
@@ -3366,13 +3352,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="16">
         <v>21.8</v>
@@ -3383,13 +3369,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="16">
         <v>15.5</v>
@@ -3400,13 +3386,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="18">
         <v>8.8</v>
@@ -3417,13 +3403,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="14">
         <v>17.5</v>
@@ -3434,13 +3420,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="14">
         <v>15.8</v>
@@ -3451,13 +3437,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="14">
         <v>32.8</v>
@@ -3468,13 +3454,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="14">
         <v>20.5</v>
@@ -3485,13 +3471,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="14">
         <v>26.5</v>
@@ -3502,13 +3488,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="14">
         <v>3.2</v>
@@ -3519,13 +3505,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="14">
         <v>2.4</v>
@@ -3536,13 +3522,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="14">
         <v>2.6</v>
@@ -3553,13 +3539,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="E19" s="13">
         <v>5.3</v>
@@ -3570,13 +3556,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="13">
         <v>5.3</v>
@@ -3587,13 +3573,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="13">
         <v>5.3</v>
@@ -3604,13 +3590,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="13">
         <v>5.3</v>
@@ -3621,13 +3607,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="13">
         <v>5.3</v>
@@ -3638,13 +3624,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="13">
         <v>5.3</v>
@@ -3655,13 +3641,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="14">
         <v>33.2</v>
@@ -3672,13 +3658,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="14">
         <v>35.7</v>
@@ -3689,13 +3675,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="14">
         <v>35.2</v>
@@ -3706,13 +3692,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="13">
         <v>33.2</v>
@@ -3723,13 +3709,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="18">
         <v>56.86</v>
@@ -3740,13 +3726,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="18">
         <v>8.5</v>
@@ -3757,13 +3743,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="18">
         <v>20.5</v>
@@ -3774,13 +3760,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="18">
         <v>36.76</v>
@@ -3791,13 +3777,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="18">
         <v>14.71</v>
@@ -3808,13 +3794,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="18">
         <v>83.62</v>
@@ -3825,13 +3811,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="18">
         <v>32.8</v>
@@ -3842,13 +3828,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E36" s="14">
         <v>18.9</v>
@@ -3859,13 +3845,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="D37" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="14">
         <v>2.3</v>
@@ -3876,10 +3862,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="14">
@@ -3891,10 +3877,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="14">
@@ -3906,10 +3892,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="14">
@@ -3921,10 +3907,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="14">
@@ -3936,13 +3922,13 @@
         <v>14</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="E42" s="14">
         <v>83.0</v>
@@ -3953,13 +3939,13 @@
         <v>14</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>107</v>
       </c>
       <c r="E43" s="14">
         <v>65.0</v>
@@ -3970,13 +3956,13 @@
         <v>14</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="D44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="14">
         <v>14.0</v>
@@ -3987,13 +3973,13 @@
         <v>14</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="14">
         <v>19.5</v>
@@ -4004,13 +3990,13 @@
         <v>14</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="14">
         <v>22.0</v>
@@ -4021,13 +4007,13 @@
         <v>14</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="E47" s="14">
         <v>27.0</v>
@@ -4038,13 +4024,13 @@
         <v>14</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="18">
         <v>8.3</v>
@@ -4055,13 +4041,13 @@
         <v>14</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="18">
         <v>20.08</v>
@@ -4072,13 +4058,13 @@
         <v>14</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" s="18">
         <v>36.0</v>
@@ -4089,13 +4075,13 @@
         <v>14</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="E51" s="18">
         <v>55.68</v>
@@ -4106,13 +4092,13 @@
         <v>14</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" s="18">
         <v>81.88</v>
@@ -4123,13 +4109,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="18">
         <v>14.4</v>
@@ -4140,13 +4126,13 @@
         <v>14</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" s="18">
         <v>32.12</v>
@@ -4157,13 +4143,13 @@
         <v>14</v>
       </c>
       <c r="B55" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="D55" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="E55" s="14">
         <v>18.0</v>
@@ -4174,13 +4160,13 @@
         <v>14</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" s="14">
         <v>21.0</v>
@@ -4191,13 +4177,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="E57" s="18">
         <v>8.0</v>
@@ -4208,13 +4194,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="18">
         <v>18.56</v>
@@ -4225,13 +4211,13 @@
         <v>14</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="18">
         <v>33.27</v>
@@ -4242,13 +4228,13 @@
         <v>14</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="18">
         <v>51.46</v>
@@ -4259,13 +4245,13 @@
         <v>14</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="18">
         <v>75.68</v>
@@ -4276,13 +4262,13 @@
         <v>14</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" s="18">
         <v>13.31</v>
@@ -4293,13 +4279,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="18">
         <v>29.69</v>
@@ -4310,13 +4296,13 @@
         <v>14</v>
       </c>
       <c r="B64" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="D64" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="E64" s="14">
         <v>480.0</v>
@@ -4327,13 +4313,13 @@
         <v>14</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="E65" s="14">
         <v>580.0</v>
@@ -4344,13 +4330,13 @@
         <v>16</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E66" s="13">
         <v>33.4</v>
@@ -4361,13 +4347,13 @@
         <v>16</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" s="13">
         <v>36.0</v>
@@ -4378,13 +4364,13 @@
         <v>16</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E68" s="14">
         <v>35.4</v>
@@ -4395,13 +4381,13 @@
         <v>16</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E69" s="13">
         <v>0.0</v>
@@ -4412,13 +4398,13 @@
         <v>16</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E70" s="16">
         <v>56.05</v>
@@ -4429,13 +4415,13 @@
         <v>16</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E71" s="16">
         <v>20.21</v>
@@ -4446,13 +4432,13 @@
         <v>16</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" s="16">
         <v>36.24</v>
@@ -4463,13 +4449,13 @@
         <v>16</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E73" s="16">
         <v>8.15</v>
@@ -4480,13 +4466,13 @@
         <v>16</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="16">
         <v>14.6</v>
@@ -4497,13 +4483,13 @@
         <v>16</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="18">
         <v>32.89</v>
@@ -4514,13 +4500,13 @@
         <v>16</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" s="16">
         <v>144.96</v>
@@ -4531,13 +4517,13 @@
         <v>16</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D77" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E77" s="16">
         <v>55.63</v>
@@ -4548,13 +4534,13 @@
         <v>16</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" s="16">
         <v>20.06</v>
@@ -4565,13 +4551,13 @@
         <v>16</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" s="16">
         <v>35.97</v>
@@ -4582,13 +4568,13 @@
         <v>16</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" s="16">
         <v>8.09</v>
@@ -4599,13 +4585,13 @@
         <v>16</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E81" s="16">
         <v>14.39</v>
@@ -4616,13 +4602,13 @@
         <v>16</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E82" s="16">
         <v>32.09</v>
@@ -4633,13 +4619,13 @@
         <v>16</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E83" s="16">
         <v>143.87</v>
@@ -4650,13 +4636,13 @@
         <v>16</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D84" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E84" s="16">
         <v>53.12</v>
@@ -4667,13 +4653,13 @@
         <v>16</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E85" s="16">
         <v>19.16</v>
@@ -4684,13 +4670,13 @@
         <v>16</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E86" s="16">
         <v>34.35</v>
@@ -4701,13 +4687,13 @@
         <v>16</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E87" s="16">
         <v>7.72</v>
@@ -4718,13 +4704,13 @@
         <v>16</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E88" s="16">
         <v>13.14</v>
@@ -4735,13 +4721,13 @@
         <v>16</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E89" s="18">
         <v>30.91</v>
@@ -4752,13 +4738,13 @@
         <v>16</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E90" s="16">
         <v>137.39</v>
@@ -4769,13 +4755,13 @@
         <v>16</v>
       </c>
       <c r="B91" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="D91" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E91" s="14">
         <v>13.24</v>
@@ -4786,13 +4772,13 @@
         <v>16</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E92" s="14">
         <v>13.24</v>
@@ -4803,13 +4789,13 @@
         <v>16</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="E93" s="14">
         <v>18.06</v>
@@ -4820,13 +4806,13 @@
         <v>16</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E94" s="14">
         <v>18.94</v>
@@ -4837,13 +4823,13 @@
         <v>16</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E95" s="14">
         <v>23.19</v>
@@ -4854,13 +4840,13 @@
         <v>16</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E96" s="14">
         <v>23.23</v>
@@ -4871,13 +4857,13 @@
         <v>16</v>
       </c>
       <c r="B97" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="D97" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="E97" s="13">
         <v>3.78</v>
@@ -4888,13 +4874,13 @@
         <v>16</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E98" s="13">
         <v>3.78</v>
@@ -4905,13 +4891,13 @@
         <v>16</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E99" s="13">
         <v>3.86</v>
@@ -4922,13 +4908,13 @@
         <v>16</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E100" s="13">
         <v>3.86</v>
@@ -4939,13 +4925,13 @@
         <v>16</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E101" s="13">
         <v>3.86</v>
@@ -4956,13 +4942,13 @@
         <v>16</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E102" s="14">
         <v>3.89</v>
@@ -4973,13 +4959,13 @@
         <v>16</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E103" s="14">
         <v>3.89</v>
@@ -4990,13 +4976,13 @@
         <v>16</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E104" s="14">
         <v>5.63</v>
@@ -5007,13 +4993,13 @@
         <v>16</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E105" s="14">
         <v>5.48</v>
@@ -5024,13 +5010,13 @@
         <v>16</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E106" s="14">
         <v>5.09</v>
@@ -5041,13 +5027,13 @@
         <v>16</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E107" s="14">
         <v>6.1</v>
@@ -5058,13 +5044,13 @@
         <v>16</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E108" s="14">
         <v>6.1</v>
@@ -5075,13 +5061,13 @@
         <v>16</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E109" s="14">
         <v>5.83</v>
@@ -5092,13 +5078,13 @@
         <v>16</v>
       </c>
       <c r="B110" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="D110" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="E110" s="13">
         <v>9.5</v>
@@ -5109,13 +5095,13 @@
         <v>16</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111" s="13">
         <v>10.4</v>
@@ -5126,13 +5112,13 @@
         <v>19</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="D112" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E112" s="14">
         <v>33.2</v>
@@ -5143,13 +5129,13 @@
         <v>19</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E113" s="14">
         <v>35.6</v>
@@ -5160,13 +5146,13 @@
         <v>19</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D114" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E114" s="18">
         <v>58.0</v>
@@ -5177,13 +5163,13 @@
         <v>19</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E115" s="18">
         <v>21.0</v>
@@ -5194,13 +5180,13 @@
         <v>19</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E116" s="18">
         <v>38.0</v>
@@ -5211,13 +5197,13 @@
         <v>19</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E117" s="18">
         <v>9.0</v>
@@ -5228,13 +5214,13 @@
         <v>19</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E118" s="18">
         <v>17.0</v>
@@ -5245,13 +5231,13 @@
         <v>19</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E119" s="14">
         <v>13.0</v>
@@ -5262,13 +5248,13 @@
         <v>19</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E120" s="14">
         <v>18.0</v>
@@ -5279,13 +5265,13 @@
         <v>19</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E121" s="14">
         <v>23.0</v>
@@ -5296,13 +5282,13 @@
         <v>19</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C122" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="E122" s="14">
         <v>660.0</v>
@@ -5313,13 +5299,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="D123" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E123" s="14">
         <v>30.5</v>
@@ -5330,13 +5316,13 @@
         <v>2</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E124" s="14">
         <v>33.5</v>
@@ -5347,13 +5333,13 @@
         <v>2</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C125" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E125" s="14">
         <v>32.5</v>
@@ -5364,13 +5350,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E126" s="14">
         <v>29.0</v>
@@ -5381,13 +5367,13 @@
         <v>2</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D127" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E127" s="18">
         <v>56.5</v>
@@ -5398,13 +5384,13 @@
         <v>2</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E128" s="18">
         <v>36.5</v>
@@ -5415,13 +5401,13 @@
         <v>2</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E129" s="18">
         <v>33.5</v>
@@ -5432,13 +5418,13 @@
         <v>2</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E130" s="18">
         <v>15.0</v>
@@ -5449,13 +5435,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E131" s="18">
         <v>8.5</v>
@@ -5466,13 +5452,13 @@
         <v>2</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E132" s="18">
         <v>21.0</v>
@@ -5483,13 +5469,13 @@
         <v>2</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E133" s="18">
         <v>32.5</v>
@@ -5500,13 +5486,13 @@
         <v>2</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D134" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E134" s="14">
         <v>10.0</v>
@@ -5517,13 +5503,13 @@
         <v>2</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E135" s="14">
         <v>2.8</v>
@@ -5534,13 +5520,13 @@
         <v>2</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E136" s="14">
         <v>1.05</v>
@@ -5551,13 +5537,13 @@
         <v>2</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E137" s="14">
         <v>2.9</v>
@@ -5568,13 +5554,13 @@
         <v>2</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E138" s="14">
         <v>2.5</v>
@@ -5585,13 +5571,13 @@
         <v>2</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E139" s="14">
         <v>9.2</v>
@@ -5602,13 +5588,13 @@
         <v>2</v>
       </c>
       <c r="B140" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="D140" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="D140" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="E140" s="14">
         <v>8.5</v>
@@ -5619,13 +5605,13 @@
         <v>2</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E141" s="14">
         <v>11.0</v>
@@ -5636,13 +5622,13 @@
         <v>4</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="D142" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E142" s="14">
         <v>30.0</v>
@@ -5653,13 +5639,13 @@
         <v>4</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E143" s="14">
         <v>33.0</v>
@@ -5670,13 +5656,13 @@
         <v>4</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C144" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E144" s="14">
         <v>32.0</v>
@@ -5687,13 +5673,13 @@
         <v>4</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E145" s="13">
         <v>28.2</v>
@@ -5704,13 +5690,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C146" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D146" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E146" s="18">
         <v>57.5</v>
@@ -5721,13 +5707,13 @@
         <v>4</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E147" s="18">
         <v>37.2</v>
@@ -5738,13 +5724,13 @@
         <v>4</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E148" s="18">
         <v>8.5</v>
@@ -5755,13 +5741,13 @@
         <v>4</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E149" s="18">
         <v>33.3</v>
@@ -5772,13 +5758,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D150" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E150" s="14">
         <v>10.0</v>
@@ -5789,13 +5775,13 @@
         <v>4</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E151" s="14">
         <v>2.5</v>
@@ -5806,13 +5792,13 @@
         <v>4</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E152" s="14">
         <v>1.02</v>
@@ -5823,13 +5809,13 @@
         <v>4</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E153" s="14">
         <v>2.9</v>
@@ -5840,13 +5826,13 @@
         <v>4</v>
       </c>
       <c r="B154" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C154" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C154" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="D154" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E154" s="14">
         <v>2.7</v>
@@ -5857,13 +5843,13 @@
         <v>4</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E155" s="14">
         <v>2.5</v>
@@ -5874,13 +5860,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E156" s="14">
         <v>8.9</v>
@@ -5891,13 +5877,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="D157" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="E157" s="14">
         <v>8.2</v>
@@ -5908,13 +5894,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E158" s="14">
         <v>11.0</v>
@@ -5925,13 +5911,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E159" s="14">
         <v>29.9</v>
@@ -5942,13 +5928,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E160" s="14">
         <v>33.5</v>
@@ -5959,13 +5945,13 @@
         <v>6</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C161" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D161" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E161" s="14">
         <v>32.5</v>
@@ -5976,13 +5962,13 @@
         <v>6</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E162" s="14">
         <v>28.4</v>
@@ -5993,13 +5979,13 @@
         <v>6</v>
       </c>
       <c r="B163" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C163" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D163" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E163" s="18">
         <v>56.5</v>
@@ -6010,13 +5996,13 @@
         <v>6</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E164" s="18">
         <v>36.6</v>
@@ -6027,13 +6013,13 @@
         <v>6</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E165" s="18">
         <v>8.3</v>
@@ -6044,13 +6030,13 @@
         <v>6</v>
       </c>
       <c r="B166" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C166" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D166" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E166" s="14">
         <v>8.0</v>
@@ -6061,13 +6047,13 @@
         <v>6</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E167" s="14">
         <v>6.5</v>
@@ -6078,13 +6064,13 @@
         <v>6</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E168" s="14">
         <v>16.5</v>
@@ -6095,13 +6081,13 @@
         <v>6</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E169" s="14">
         <v>2.5</v>
@@ -6112,13 +6098,13 @@
         <v>6</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E170" s="14">
         <v>1.05</v>
@@ -6129,13 +6115,13 @@
         <v>6</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E171" s="14">
         <v>2.85</v>
@@ -6146,13 +6132,13 @@
         <v>6</v>
       </c>
       <c r="B172" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C172" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C172" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="D172" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E172" s="14">
         <v>2.55</v>
@@ -6163,13 +6149,13 @@
         <v>6</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E173" s="14">
         <v>0.75</v>
@@ -6180,13 +6166,13 @@
         <v>6</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E174" s="14">
         <v>9.5</v>
@@ -6197,13 +6183,13 @@
         <v>8</v>
       </c>
       <c r="B175" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="D175" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E175" s="14">
         <v>30.5</v>
@@ -6214,13 +6200,13 @@
         <v>8</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E176" s="14">
         <v>33.7</v>
@@ -6231,13 +6217,13 @@
         <v>8</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C177" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D177" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E177" s="14">
         <v>32.7</v>
@@ -6248,13 +6234,13 @@
         <v>8</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E178" s="14">
         <v>29.0</v>
@@ -6265,13 +6251,13 @@
         <v>8</v>
       </c>
       <c r="B179" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D179" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E179" s="18">
         <v>57.3</v>
@@ -6282,13 +6268,13 @@
         <v>8</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D180" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E180" s="14">
         <v>13.5</v>
@@ -6299,13 +6285,13 @@
         <v>8</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E181" s="14">
         <v>2.9</v>
@@ -6316,13 +6302,13 @@
         <v>8</v>
       </c>
       <c r="B182" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="D182" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="E182" s="14">
         <v>28.0</v>
@@ -6333,13 +6319,13 @@
         <v>8</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E183" s="14">
         <v>15.0</v>
@@ -6350,13 +6336,13 @@
         <v>21</v>
       </c>
       <c r="B184" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="D184" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="E184" s="14">
         <v>33.2</v>
@@ -6367,13 +6353,13 @@
         <v>21</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E185" s="14">
         <v>35.7</v>
@@ -6384,13 +6370,13 @@
         <v>21</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C186" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D186" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="E186" s="14">
         <v>35.2</v>
@@ -6401,13 +6387,13 @@
         <v>21</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E187" s="14">
         <v>33.0</v>
@@ -6418,13 +6404,13 @@
         <v>21</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E188" s="14">
         <v>10.2</v>
@@ -6435,13 +6421,13 @@
         <v>21</v>
       </c>
       <c r="B189" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="D189" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="E189" s="14">
         <v>9.5</v>
@@ -6452,13 +6438,13 @@
         <v>21</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E190" s="14">
         <v>12.0</v>
@@ -6469,13 +6455,13 @@
         <v>21</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C191" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D191" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E191" s="14">
         <v>55.3</v>
@@ -6486,13 +6472,13 @@
         <v>21</v>
       </c>
       <c r="B192" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C192" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="D192" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E192" s="14">
         <v>12.0</v>
@@ -6503,13 +6489,13 @@
         <v>21</v>
       </c>
       <c r="B193" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="D193" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="E193" s="14">
         <v>2.2</v>
@@ -6520,13 +6506,13 @@
         <v>21</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E194" s="14">
         <v>2.4</v>
@@ -6537,13 +6523,13 @@
         <v>21</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E195" s="14">
         <v>0.65</v>
@@ -6554,13 +6540,13 @@
         <v>21</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E196" s="14">
         <v>37.0</v>
@@ -6571,173 +6557,236 @@
         <v>21</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E197" s="14">
         <v>9.5</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B198" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="D198" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="E198" s="14">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="A199" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E198" s="26">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="199" ht="14.25" customHeight="1">
-      <c r="B199" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C199" s="15" t="s">
+      <c r="D199" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="14">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="A200" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D199" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E199" s="26">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
-      <c r="B200" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C200" s="15" t="s">
+      <c r="D200" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D200" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E200" s="26">
+      <c r="E200" s="14">
         <v>35.2</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
+      <c r="A201" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B201" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E201" s="14">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="A202" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C201" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E201" s="26">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
-      <c r="B202" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C202" s="15" t="s">
+      <c r="D202" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D202" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E202" s="26">
+      <c r="E202" s="14">
         <v>9.5</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
+      <c r="A203" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B203" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" s="26">
+        <v>147</v>
+      </c>
+      <c r="E203" s="14">
         <v>12.0</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
+      <c r="A204" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B204" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C204" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D204" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E204" s="26">
+        <v>93</v>
+      </c>
+      <c r="E204" s="14">
         <v>55.5</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
+      <c r="A205" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B205" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C205" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="D205" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205" s="14">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="A206" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E206" s="14">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="A207" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E207" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="A208" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C208" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E205" s="26">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
-      <c r="B206" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C206" s="15" t="s">
+      <c r="D208" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D206" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E206" s="26">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
-      <c r="B207" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E207" s="26">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25" customHeight="1">
-      <c r="E208" s="26">
+      <c r="E208" s="14">
         <v>0.65</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="E209" s="26">
+      <c r="A209" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E209" s="14">
         <v>37.0</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="E210" s="26">
+      <c r="A210" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E210" s="14">
         <v>9.5</v>
       </c>
     </row>

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="166">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -415,10 +415,13 @@
     <t>Fierro barra 1"</t>
   </si>
   <si>
+    <t>Importado</t>
+  </si>
+  <si>
+    <t>Prodac</t>
+  </si>
+  <si>
     <t>Calamina 0.18</t>
-  </si>
-  <si>
-    <t>Prodac</t>
   </si>
   <si>
     <t>Calamina 0.22 Pre pintada</t>
@@ -611,10 +614,10 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -999,7 +1002,7 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2019,56 +2022,56 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>9.61957234E8</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>9.61957234E8</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
         <v>9.63321515E8</v>
       </c>
     </row>
@@ -2076,102 +2079,102 @@
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="9">
         <v>9.4061623E7</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>9.82687414E8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>9.81257242E8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>9.98391439E8</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>9.78001402E8</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>9.78001402E8</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>9.9467051E8</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>9.9467051E8</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2180,35 +2183,35 @@
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>9.42190698E8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>9.42190698E8</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>9.57851642E8</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -3229,7 +3232,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3246,7 +3249,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3263,7 +3266,7 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -3280,7 +3283,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3297,7 +3300,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3314,7 +3317,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3331,7 +3334,7 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -3348,7 +3351,7 @@
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3365,7 +3368,7 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3382,7 +3385,7 @@
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -3399,7 +3402,7 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -3416,7 +3419,7 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -3433,7 +3436,7 @@
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3450,7 +3453,7 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3467,7 +3470,7 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3484,7 +3487,7 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3501,7 +3504,7 @@
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -3518,7 +3521,7 @@
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3535,7 +3538,7 @@
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -3552,7 +3555,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -3569,7 +3572,7 @@
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -3586,7 +3589,7 @@
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -3603,7 +3606,7 @@
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3620,7 +3623,7 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3637,7 +3640,7 @@
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -3654,7 +3657,7 @@
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3671,7 +3674,7 @@
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -3688,7 +3691,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -3705,7 +3708,7 @@
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -3722,7 +3725,7 @@
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -3739,7 +3742,7 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -3756,7 +3759,7 @@
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -3773,7 +3776,7 @@
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -3790,7 +3793,7 @@
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -3807,7 +3810,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -3824,7 +3827,7 @@
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -3841,7 +3844,7 @@
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -3858,7 +3861,7 @@
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -3873,7 +3876,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -3888,7 +3891,7 @@
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -3903,7 +3906,7 @@
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -3918,7 +3921,7 @@
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -3935,7 +3938,7 @@
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -3952,7 +3955,7 @@
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -3969,7 +3972,7 @@
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -3986,7 +3989,7 @@
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4003,7 +4006,7 @@
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -4020,7 +4023,7 @@
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -4037,7 +4040,7 @@
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -4054,7 +4057,7 @@
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -4071,7 +4074,7 @@
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -4088,7 +4091,7 @@
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -4105,7 +4108,7 @@
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -4122,7 +4125,7 @@
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -4139,7 +4142,7 @@
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="22" t="s">
@@ -4156,7 +4159,7 @@
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="22" t="s">
@@ -4173,7 +4176,7 @@
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -4190,7 +4193,7 @@
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -4207,7 +4210,7 @@
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -4224,7 +4227,7 @@
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -4241,7 +4244,7 @@
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -4258,7 +4261,7 @@
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -4275,7 +4278,7 @@
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -4292,7 +4295,7 @@
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="22" t="s">
@@ -4309,7 +4312,7 @@
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="22" t="s">
@@ -4407,7 +4410,7 @@
         <v>93</v>
       </c>
       <c r="E70" s="16">
-        <v>56.05</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -4424,7 +4427,7 @@
         <v>93</v>
       </c>
       <c r="E71" s="16">
-        <v>20.21</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -4441,7 +4444,7 @@
         <v>93</v>
       </c>
       <c r="E72" s="16">
-        <v>36.24</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -4458,7 +4461,7 @@
         <v>93</v>
       </c>
       <c r="E73" s="16">
-        <v>8.15</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -4475,7 +4478,7 @@
         <v>93</v>
       </c>
       <c r="E74" s="16">
-        <v>14.6</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -4491,8 +4494,8 @@
       <c r="D75" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="18">
-        <v>32.89</v>
+      <c r="E75" s="16">
+        <v>31.71</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -4509,7 +4512,7 @@
         <v>93</v>
       </c>
       <c r="E76" s="16">
-        <v>144.96</v>
+        <v>142.14</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -4523,10 +4526,10 @@
         <v>66</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E77" s="16">
-        <v>55.63</v>
+        <v>54.47</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -4540,10 +4543,10 @@
         <v>69</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E78" s="16">
-        <v>20.06</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -4557,10 +4560,10 @@
         <v>68</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E79" s="16">
-        <v>35.97</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -4574,10 +4577,10 @@
         <v>71</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E80" s="16">
-        <v>8.09</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -4591,10 +4594,10 @@
         <v>70</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E81" s="16">
-        <v>14.39</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -4608,10 +4611,10 @@
         <v>96</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E82" s="16">
-        <v>32.09</v>
+        <v>31.42</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -4625,10 +4628,10 @@
         <v>130</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E83" s="16">
-        <v>143.87</v>
+        <v>140.86</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -4642,10 +4645,10 @@
         <v>66</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E84" s="16">
-        <v>53.12</v>
+        <v>52.67</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -4659,10 +4662,10 @@
         <v>69</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E85" s="16">
-        <v>19.16</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -4676,10 +4679,10 @@
         <v>68</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E86" s="16">
-        <v>34.35</v>
+        <v>34.05</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -4693,10 +4696,10 @@
         <v>71</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E87" s="16">
-        <v>7.72</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -4710,10 +4713,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E88" s="16">
-        <v>13.14</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -4727,10 +4730,10 @@
         <v>96</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="18">
-        <v>30.91</v>
+        <v>131</v>
+      </c>
+      <c r="E89" s="16">
+        <v>30.39</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -4744,10 +4747,10 @@
         <v>130</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E90" s="16">
-        <v>137.39</v>
+        <v>136.21</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -4774,11 +4777,11 @@
       <c r="B92" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>131</v>
+      <c r="C92" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="E92" s="14">
         <v>13.24</v>
@@ -4792,7 +4795,7 @@
         <v>107</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>132</v>
@@ -4843,7 +4846,7 @@
         <v>107</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>132</v>
@@ -4894,7 +4897,7 @@
         <v>88</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>86</v>
@@ -4911,7 +4914,7 @@
         <v>88</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>86</v>
@@ -4928,7 +4931,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>86</v>
@@ -4945,13 +4948,13 @@
         <v>88</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="14">
-        <v>3.89</v>
+      <c r="E102" s="13">
+        <v>3.86</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
@@ -4962,13 +4965,13 @@
         <v>88</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E103" s="14">
-        <v>3.89</v>
+      <c r="E103" s="13">
+        <v>3.86</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
@@ -4979,13 +4982,13 @@
         <v>88</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E104" s="14">
-        <v>5.63</v>
+      <c r="E104" s="13">
+        <v>5.59</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
@@ -4996,13 +4999,13 @@
         <v>88</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E105" s="14">
-        <v>5.48</v>
+      <c r="E105" s="13">
+        <v>5.43</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
@@ -5013,13 +5016,13 @@
         <v>88</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E106" s="14">
-        <v>5.09</v>
+      <c r="E106" s="13">
+        <v>5.05</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
@@ -5030,13 +5033,13 @@
         <v>88</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="14">
-        <v>6.1</v>
+      <c r="E107" s="13">
+        <v>6.04</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
@@ -5047,13 +5050,13 @@
         <v>88</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E108" s="14">
-        <v>6.1</v>
+      <c r="E108" s="13">
+        <v>6.04</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
@@ -5064,13 +5067,13 @@
         <v>88</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E109" s="14">
-        <v>5.83</v>
+      <c r="E109" s="13">
+        <v>5.78</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
@@ -5078,13 +5081,13 @@
         <v>16</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E110" s="13">
         <v>9.5</v>
@@ -5095,20 +5098,20 @@
         <v>16</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="E111" s="13">
         <v>10.4</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B112" s="12" t="s">
@@ -5125,7 +5128,7 @@
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B113" s="12" t="s">
@@ -5142,7 +5145,7 @@
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B114" s="12" t="s">
@@ -5159,7 +5162,7 @@
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -5176,7 +5179,7 @@
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -5193,7 +5196,7 @@
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -5210,7 +5213,7 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -5227,14 +5230,14 @@
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>74</v>
@@ -5244,14 +5247,14 @@
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>74</v>
@@ -5261,14 +5264,14 @@
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>74</v>
@@ -5285,17 +5288,17 @@
         <v>80</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E122" s="14">
         <v>660.0</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="12" t="s">
@@ -5312,7 +5315,7 @@
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -5329,7 +5332,7 @@
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B125" s="12" t="s">
@@ -5346,7 +5349,7 @@
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -5363,7 +5366,7 @@
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="12" t="s">
@@ -5380,7 +5383,7 @@
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B128" s="12" t="s">
@@ -5397,7 +5400,7 @@
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -5414,7 +5417,7 @@
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -5431,7 +5434,7 @@
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="12" t="s">
@@ -5448,7 +5451,7 @@
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="12" t="s">
@@ -5465,7 +5468,7 @@
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="12" t="s">
@@ -5482,7 +5485,7 @@
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B134" s="12" t="s">
@@ -5492,14 +5495,14 @@
         <v>73</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E134" s="14">
         <v>10.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="12" t="s">
@@ -5509,31 +5512,31 @@
         <v>78</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E135" s="14">
         <v>2.8</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E136" s="14">
         <v>1.05</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B137" s="12" t="s">
@@ -5543,82 +5546,82 @@
         <v>83</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E137" s="14">
         <v>2.9</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E138" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C139" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="E139" s="14">
         <v>9.2</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E140" s="14">
         <v>8.5</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E141" s="14">
         <v>11.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B142" s="12" t="s">
@@ -5635,7 +5638,7 @@
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B143" s="12" t="s">
@@ -5652,7 +5655,7 @@
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B144" s="12" t="s">
@@ -5669,7 +5672,7 @@
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B145" s="12" t="s">
@@ -5686,7 +5689,7 @@
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B146" s="12" t="s">
@@ -5703,7 +5706,7 @@
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B147" s="12" t="s">
@@ -5720,7 +5723,7 @@
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B148" s="12" t="s">
@@ -5737,7 +5740,7 @@
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B149" s="12" t="s">
@@ -5754,7 +5757,7 @@
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B150" s="12" t="s">
@@ -5764,14 +5767,14 @@
         <v>73</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E150" s="14">
         <v>10.0</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B151" s="12" t="s">
@@ -5781,31 +5784,31 @@
         <v>78</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E151" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E152" s="14">
         <v>1.02</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -5815,14 +5818,14 @@
         <v>83</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E153" s="14">
         <v>2.9</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B154" s="12" t="s">
@@ -5832,82 +5835,82 @@
         <v>81</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E154" s="14">
         <v>2.7</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E155" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C156" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="E156" s="14">
         <v>8.9</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E157" s="14">
         <v>8.2</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E158" s="14">
         <v>11.0</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -5924,7 +5927,7 @@
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B160" s="12" t="s">
@@ -5941,7 +5944,7 @@
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B161" s="12" t="s">
@@ -5958,7 +5961,7 @@
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B162" s="12" t="s">
@@ -5975,7 +5978,7 @@
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B163" s="12" t="s">
@@ -5992,7 +5995,7 @@
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B164" s="12" t="s">
@@ -6009,7 +6012,7 @@
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -6026,7 +6029,7 @@
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B166" s="12" t="s">
@@ -6036,14 +6039,14 @@
         <v>73</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E166" s="14">
         <v>8.0</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B167" s="12" t="s">
@@ -6053,14 +6056,14 @@
         <v>77</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E167" s="14">
         <v>6.5</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B168" s="12" t="s">
@@ -6070,14 +6073,14 @@
         <v>76</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E168" s="14">
         <v>16.5</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -6087,31 +6090,31 @@
         <v>78</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E169" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E170" s="14">
         <v>1.05</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B171" s="12" t="s">
@@ -6121,14 +6124,14 @@
         <v>83</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E171" s="14">
         <v>2.85</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B172" s="12" t="s">
@@ -6138,48 +6141,48 @@
         <v>81</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E172" s="14">
         <v>2.55</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E173" s="14">
         <v>0.75</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C174" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D174" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="D174" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="E174" s="14">
         <v>9.5</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B175" s="12" t="s">
@@ -6196,7 +6199,7 @@
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B176" s="12" t="s">
@@ -6213,7 +6216,7 @@
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B177" s="12" t="s">
@@ -6230,7 +6233,7 @@
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B178" s="12" t="s">
@@ -6247,7 +6250,7 @@
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B179" s="12" t="s">
@@ -6264,7 +6267,7 @@
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B180" s="12" t="s">
@@ -6274,14 +6277,14 @@
         <v>73</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E180" s="14">
         <v>13.5</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B181" s="12" t="s">
@@ -6291,48 +6294,48 @@
         <v>83</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E181" s="14">
         <v>2.9</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E182" s="14">
         <v>28.0</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C183" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="E183" s="14">
         <v>15.0</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B184" s="15" t="s">
@@ -6349,7 +6352,7 @@
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B185" s="15" t="s">
@@ -6366,7 +6369,7 @@
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B186" s="15" t="s">
@@ -6383,7 +6386,7 @@
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B187" s="15" t="s">
@@ -6400,58 +6403,58 @@
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C188" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D188" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="E188" s="14">
         <v>10.2</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E189" s="14">
         <v>9.5</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E190" s="14">
         <v>12.0</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B191" s="15" t="s">
@@ -6468,7 +6471,7 @@
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B192" s="15" t="s">
@@ -6478,14 +6481,14 @@
         <v>73</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E192" s="14">
         <v>12.0</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B193" s="15" t="s">
@@ -6502,7 +6505,7 @@
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B194" s="15" t="s">
@@ -6519,14 +6522,14 @@
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B195" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>82</v>
@@ -6536,7 +6539,7 @@
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B196" s="15" t="s">
@@ -6553,7 +6556,7 @@
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B197" s="15" t="s">
@@ -6570,7 +6573,7 @@
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B198" s="15" t="s">
@@ -6587,7 +6590,7 @@
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B199" s="15" t="s">
@@ -6604,7 +6607,7 @@
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B200" s="15" t="s">
@@ -6621,58 +6624,58 @@
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C201" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D201" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="E201" s="14">
         <v>10.5</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E202" s="14">
         <v>9.5</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E203" s="14">
         <v>12.0</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B204" s="15" t="s">
@@ -6689,7 +6692,7 @@
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B205" s="15" t="s">
@@ -6699,14 +6702,14 @@
         <v>73</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E205" s="14">
         <v>12.0</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B206" s="15" t="s">
@@ -6723,7 +6726,7 @@
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B207" s="15" t="s">
@@ -6740,14 +6743,14 @@
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B208" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>82</v>
@@ -6757,7 +6760,7 @@
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B209" s="15" t="s">
@@ -6774,7 +6777,7 @@
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B210" s="15" t="s">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -4342,7 +4342,7 @@
         <v>60</v>
       </c>
       <c r="E66" s="13">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -4359,7 +4359,7 @@
         <v>60</v>
       </c>
       <c r="E67" s="13">
-        <v>36.0</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -4393,7 +4393,7 @@
         <v>63</v>
       </c>
       <c r="E69" s="13">
-        <v>0.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">

--- a/dinoe.xlsx
+++ b/dinoe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="172">
   <si>
     <t>Nombre del Asociado</t>
   </si>
@@ -412,31 +412,49 @@
     <t xml:space="preserve">Rotoplas </t>
   </si>
   <si>
-    <t>Fierro barra 1"</t>
+    <t>Fierro Sider barra 5/8</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 3/8</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 1/2</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 6mm</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 8mm</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 12mm</t>
+  </si>
+  <si>
+    <t>Fierro Sider barra 1"</t>
   </si>
   <si>
     <t>Importado</t>
   </si>
   <si>
+    <t>Calamina 0.18</t>
+  </si>
+  <si>
     <t>Prodac</t>
   </si>
   <si>
-    <t>Calamina 0.18</t>
-  </si>
-  <si>
     <t>Calamina 0.22 Pre pintada</t>
   </si>
   <si>
     <t>Clavo P/MAD. 2"</t>
   </si>
   <si>
-    <t>Clavo P/MAD. 2 1/2"</t>
+    <t>Clavo P/MAD. 21/2"</t>
   </si>
   <si>
     <t>Clavo P/MAD. 3"</t>
   </si>
   <si>
-    <t>Clavo P/MAD. 3 1/2"</t>
+    <t>Clavo P/MAD. 31/2"</t>
   </si>
   <si>
     <t>Clavo P/MAD. 4"</t>
@@ -448,7 +466,7 @@
     <t>Clavo P/MAD. 1"</t>
   </si>
   <si>
-    <t>Clavo P/MAD. 1 1/2"</t>
+    <t>Clavo P/MAD. 11/2"</t>
   </si>
   <si>
     <t>Clavo P/MAD. 6</t>
@@ -4404,13 +4422,13 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E70" s="16">
-        <v>54.96</v>
+        <v>57.01</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -4421,13 +4439,13 @@
         <v>65</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E71" s="16">
-        <v>19.82</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -4438,13 +4456,13 @@
         <v>65</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="16">
-        <v>35.53</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -4455,13 +4473,13 @@
         <v>65</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E73" s="16">
-        <v>7.99</v>
+        <v>8.29</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -4472,13 +4490,13 @@
         <v>65</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E74" s="16">
-        <v>14.31</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -4489,13 +4507,13 @@
         <v>65</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="16">
-        <v>31.71</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -4506,13 +4524,13 @@
         <v>65</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E76" s="16">
-        <v>142.14</v>
+        <v>147.45</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -4523,13 +4541,13 @@
         <v>65</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="16">
-        <v>54.47</v>
+        <v>56.58</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -4540,13 +4558,13 @@
         <v>65</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E78" s="16">
-        <v>19.64</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -4557,13 +4575,13 @@
         <v>65</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E79" s="16">
-        <v>35.22</v>
+        <v>36.58</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -4574,13 +4592,13 @@
         <v>65</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E80" s="16">
-        <v>7.92</v>
+        <v>8.22</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -4591,13 +4609,13 @@
         <v>65</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E81" s="16">
-        <v>14.09</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -4608,13 +4626,13 @@
         <v>65</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E82" s="16">
-        <v>31.42</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -4625,13 +4643,13 @@
         <v>65</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E83" s="16">
-        <v>140.86</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -4642,13 +4660,13 @@
         <v>65</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E84" s="16">
-        <v>52.67</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -4659,13 +4677,13 @@
         <v>65</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E85" s="16">
-        <v>18.99</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -4676,13 +4694,13 @@
         <v>65</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E86" s="16">
-        <v>34.05</v>
+        <v>34.64</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -4693,13 +4711,13 @@
         <v>65</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E87" s="16">
-        <v>7.66</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -4710,13 +4728,13 @@
         <v>65</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E88" s="16">
-        <v>13.62</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -4727,13 +4745,13 @@
         <v>65</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E89" s="16">
-        <v>30.39</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -4744,13 +4762,13 @@
         <v>65</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E90" s="16">
-        <v>136.21</v>
+        <v>138.56</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -4763,10 +4781,10 @@
       <c r="C91" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13">
         <v>13.24</v>
       </c>
     </row>
@@ -4778,12 +4796,12 @@
         <v>107</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="14">
+        <v>138</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="13">
         <v>13.24</v>
       </c>
     </row>
@@ -4794,13 +4812,13 @@
       <c r="B93" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="14">
+      <c r="C93" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="13">
         <v>18.06</v>
       </c>
     </row>
@@ -4811,13 +4829,13 @@
       <c r="B94" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="14">
+      <c r="D94" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="13">
         <v>18.94</v>
       </c>
     </row>
@@ -4828,13 +4846,13 @@
       <c r="B95" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="14">
+      <c r="D95" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="13">
         <v>23.19</v>
       </c>
     </row>
@@ -4845,13 +4863,13 @@
       <c r="B96" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="14">
+      <c r="C96" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="13">
         <v>23.23</v>
       </c>
     </row>
@@ -4862,14 +4880,14 @@
       <c r="B97" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E97" s="13">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
@@ -4879,14 +4897,14 @@
       <c r="B98" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E98" s="13">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -4896,14 +4914,14 @@
       <c r="B99" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="12" t="s">
+      <c r="C99" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E99" s="13">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -4914,13 +4932,13 @@
         <v>88</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E100" s="13">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -4930,14 +4948,14 @@
       <c r="B101" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D101" s="12" t="s">
+      <c r="C101" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E101" s="13">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
@@ -4948,13 +4966,13 @@
         <v>88</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E102" s="13">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
@@ -4964,14 +4982,14 @@
       <c r="B103" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" s="12" t="s">
+      <c r="C103" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E103" s="13">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
@@ -4981,14 +4999,14 @@
       <c r="B104" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D104" s="12" t="s">
+      <c r="C104" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E104" s="13">
-        <v>5.59</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
@@ -4998,14 +5016,14 @@
       <c r="B105" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" s="12" t="s">
+      <c r="C105" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E105" s="13">
-        <v>5.43</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
@@ -5016,13 +5034,13 @@
         <v>88</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D106" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E106" s="13">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
@@ -5032,14 +5050,14 @@
       <c r="B107" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D107" s="12" t="s">
+      <c r="C107" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E107" s="13">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
@@ -5049,14 +5067,14 @@
       <c r="B108" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" s="12" t="s">
+      <c r="C108" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E108" s="13">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
@@ -5066,14 +5084,14 @@
       <c r="B109" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" s="12" t="s">
+      <c r="C109" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E109" s="13">
-        <v>5.78</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
@@ -5081,13 +5099,13 @@
         <v>16</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E110" s="13">
         <v>9.5</v>
@@ -5098,13 +5116,13 @@
         <v>16</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E111" s="13">
         <v>10.4</v>
@@ -5237,7 +5255,7 @@
         <v>72</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>74</v>
@@ -5254,7 +5272,7 @@
         <v>72</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>74</v>
@@ -5271,7 +5289,7 @@
         <v>72</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>74</v>
@@ -5288,10 +5306,10 @@
         <v>80</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E122" s="14">
         <v>660.0</v>
@@ -5495,7 +5513,7 @@
         <v>73</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E134" s="14">
         <v>10.0</v>
@@ -5512,7 +5530,7 @@
         <v>78</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E135" s="14">
         <v>2.8</v>
@@ -5526,10 +5544,10 @@
         <v>80</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E136" s="14">
         <v>1.05</v>
@@ -5546,7 +5564,7 @@
         <v>83</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E137" s="14">
         <v>2.9</v>
@@ -5560,10 +5578,10 @@
         <v>80</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E138" s="14">
         <v>2.5</v>
@@ -5574,13 +5592,13 @@
         <v>2</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E139" s="14">
         <v>9.2</v>
@@ -5591,13 +5609,13 @@
         <v>2</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E140" s="14">
         <v>8.5</v>
@@ -5608,13 +5626,13 @@
         <v>2</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E141" s="14">
         <v>11.0</v>
@@ -5767,7 +5785,7 @@
         <v>73</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E150" s="14">
         <v>10.0</v>
@@ -5784,7 +5802,7 @@
         <v>78</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E151" s="14">
         <v>2.5</v>
@@ -5798,10 +5816,10 @@
         <v>80</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E152" s="14">
         <v>1.02</v>
@@ -5818,7 +5836,7 @@
         <v>83</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E153" s="14">
         <v>2.9</v>
@@ -5835,7 +5853,7 @@
         <v>81</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E154" s="14">
         <v>2.7</v>
@@ -5849,10 +5867,10 @@
         <v>80</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E155" s="14">
         <v>2.5</v>
@@ -5863,13 +5881,13 @@
         <v>4</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E156" s="14">
         <v>8.9</v>
@@ -5880,13 +5898,13 @@
         <v>4</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E157" s="14">
         <v>8.2</v>
@@ -5897,13 +5915,13 @@
         <v>4</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E158" s="14">
         <v>11.0</v>
@@ -6039,7 +6057,7 @@
         <v>73</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E166" s="14">
         <v>8.0</v>
@@ -6056,7 +6074,7 @@
         <v>77</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E167" s="14">
         <v>6.5</v>
@@ -6073,7 +6091,7 @@
         <v>76</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E168" s="14">
         <v>16.5</v>
@@ -6090,7 +6108,7 @@
         <v>78</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E169" s="14">
         <v>2.5</v>
@@ -6104,10 +6122,10 @@
         <v>80</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E170" s="14">
         <v>1.05</v>
@@ -6124,7 +6142,7 @@
         <v>83</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E171" s="14">
         <v>2.85</v>
@@ -6141,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E172" s="14">
         <v>2.55</v>
@@ -6155,10 +6173,10 @@
         <v>80</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E173" s="14">
         <v>0.75</v>
@@ -6169,13 +6187,13 @@
         <v>6</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E174" s="14">
         <v>9.5</v>
@@ -6277,7 +6295,7 @@
         <v>73</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E180" s="14">
         <v>13.5</v>
@@ -6294,7 +6312,7 @@
         <v>83</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E181" s="14">
         <v>2.9</v>
@@ -6305,13 +6323,13 @@
         <v>8</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E182" s="14">
         <v>28.0</v>
@@ -6322,13 +6340,13 @@
         <v>8</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E183" s="14">
         <v>15.0</v>
@@ -6407,13 +6425,13 @@
         <v>21</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E188" s="14">
         <v>10.2</v>
@@ -6424,13 +6442,13 @@
         <v>21</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E189" s="14">
         <v>9.5</v>
@@ -6441,13 +6459,13 @@
         <v>21</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E190" s="14">
         <v>12.0</v>
@@ -6481,7 +6499,7 @@
         <v>73</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E192" s="14">
         <v>12.0</v>
@@ -6529,7 +6547,7 @@
         <v>80</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>82</v>
@@ -6628,13 +6646,13 @@
         <v>23</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E201" s="14">
         <v>10.5</v>
@@ -6645,13 +6663,13 @@
         <v>23</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E202" s="14">
         <v>9.5</v>
@@ -6662,13 +6680,13 @@
         <v>23</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E203" s="14">
         <v>12.0</v>
@@ -6702,7 +6720,7 @@
         <v>73</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E205" s="14">
         <v>12.0</v>
@@ -6750,7 +6768,7 @@
         <v>80</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>82</v>
